--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_12_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_12_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>963736.1081397636</v>
+        <v>931454.7046088814</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6486630.972584559</v>
+        <v>6486630.972584562</v>
       </c>
     </row>
     <row r="9">
@@ -1369,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>90.69351907645128</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>411.6062992654567</v>
       </c>
       <c r="H11" t="n">
-        <v>301.6186538912489</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>67.96895394968163</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>124.7874829717001</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.0499378478622</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>114.1506954700723</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1466,10 +1466,10 @@
         <v>135.3657483393379</v>
       </c>
       <c r="H12" t="n">
-        <v>93.13436112172582</v>
+        <v>21.69126064627715</v>
       </c>
       <c r="I12" t="n">
-        <v>21.30239922246435</v>
+        <v>21.30239922246436</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1508,7 +1508,7 @@
         <v>225.8112657109832</v>
       </c>
       <c r="V12" t="n">
-        <v>161.357486673978</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
         <v>251.6949831609196</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>165.211966401665</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>20.3663638127551</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.3328844140846</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>147.485201092913</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>105.5870378728063</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1584,13 +1584,13 @@
         <v>220.8610019386828</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2285878140705</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1606,28 +1606,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>361.0019023169156</v>
       </c>
       <c r="H14" t="n">
-        <v>18.21466120005676</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>67.96895394968163</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>124.7874829717001</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>206.9146911261644</v>
@@ -1666,13 +1666,13 @@
         <v>251.0499378478622</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1685,7 +1685,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>95.09008317442006</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
         <v>172.7084989883157</v>
@@ -1703,10 +1703,10 @@
         <v>135.3657483393379</v>
       </c>
       <c r="H15" t="n">
-        <v>93.13436112172582</v>
+        <v>42.99365986874195</v>
       </c>
       <c r="I15" t="n">
-        <v>21.30239922246435</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1776,13 +1776,13 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>5.558433166793979</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>102.739413241946</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>195.1205252336517</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>220.8610019386828</v>
@@ -1830,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>200.1983439946928</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1843,28 +1843,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>126.7066250192843</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.3750442053826</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>411.6062992654567</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>301.6186538912489</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>67.96895394968158</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1900,19 +1900,19 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.0499378478622</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1940,7 +1940,7 @@
         <v>135.3657483393379</v>
       </c>
       <c r="H18" t="n">
-        <v>93.13436112172582</v>
+        <v>21.6912606462785</v>
       </c>
       <c r="I18" t="n">
         <v>21.30239922246433</v>
@@ -1991,7 +1991,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>134.239595301858</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>93.06127569613984</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.3328844140846</v>
+        <v>109.0534108953333</v>
       </c>
       <c r="H19" t="n">
-        <v>147.485201092913</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>105.5870378728063</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,25 +2052,25 @@
         <v>102.739413241946</v>
       </c>
       <c r="S19" t="n">
-        <v>195.1205252336517</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>220.8610019386828</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2285878140705</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2080,28 +2080,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>128.3642227575828</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>301.6186538912489</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>67.96895394968158</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,22 +2131,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>124.7874829717001</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>248.8401151973269</v>
+        <v>251.0499378478622</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>134.9469826428689</v>
+        <v>63.50388216742252</v>
       </c>
       <c r="T21" t="n">
         <v>192.192932426668</v>
@@ -2225,7 +2225,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>134.3298847280311</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -2238,16 +2238,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>65.15928918313456</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2289,13 +2289,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>195.1205252336517</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>220.8610019386828</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2285878140705</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>77.22810184760169</v>
       </c>
     </row>
     <row r="23">
@@ -2317,25 +2317,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>340.7076995233662</v>
       </c>
       <c r="G23" t="n">
-        <v>411.6062992654567</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>72.7438347615024</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2371,19 +2371,19 @@
         <v>124.7874829717001</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>206.9146911261644</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2417,7 +2417,7 @@
         <v>93.13436112172582</v>
       </c>
       <c r="I24" t="n">
-        <v>21.30239922246435</v>
+        <v>21.30239922246433</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2484,13 +2484,13 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>77.22810184760191</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>102.739413241946</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>195.1205252336517</v>
@@ -2541,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>53.76438134812344</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2557,19 +2557,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>374.0426642831112</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>411.6062992654567</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2611,16 +2611,16 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.0499378478622</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>210.3718522815845</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2654,7 +2654,7 @@
         <v>93.13436112172582</v>
       </c>
       <c r="I27" t="n">
-        <v>21.30239922246435</v>
+        <v>21.30239922246433</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.3328844140846</v>
+        <v>67.65042607306752</v>
       </c>
       <c r="H28" t="n">
         <v>147.485201092913</v>
       </c>
       <c r="I28" t="n">
-        <v>105.5870378728063</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,25 +2763,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>195.1205252336517</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>220.8610019386828</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2285878140705</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>118.2694521832859</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2794,19 +2794,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>324.006064675446</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>195.3237932237977</v>
+        <v>411.6062992654567</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2845,7 +2845,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>206.9146911261644</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -2891,7 +2891,7 @@
         <v>93.13436112172582</v>
       </c>
       <c r="I30" t="n">
-        <v>21.30239922246435</v>
+        <v>21.30239922246433</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>70.11542838959789</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>77.22810184760191</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.3328844140846</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>147.485201092913</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>105.5870378728063</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>195.1205252336517</v>
       </c>
       <c r="T31" t="n">
         <v>220.8610019386828</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2285878140705</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -3037,7 +3037,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3046,7 +3046,7 @@
         <v>411.6062992654567</v>
       </c>
       <c r="H32" t="n">
-        <v>236.6613702775429</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>124.7874829717001</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.0499378478622</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>159.3909035658399</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3128,7 +3128,7 @@
         <v>93.13436112172582</v>
       </c>
       <c r="I33" t="n">
-        <v>21.30239922246435</v>
+        <v>21.30239922246433</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>77.22810184760191</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.3328844140846</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>147.485201092913</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>87.56408684241273</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,25 +3234,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>102.739413241946</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>195.1205252336517</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>220.8610019386828</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2285878140705</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3268,19 +3268,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>123.8806927483505</v>
+        <v>83.64023450660177</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>411.6062992654567</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>124.7874829717001</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.0499378478622</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3359,13 +3359,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>85.22504708635493</v>
+        <v>135.3657483393379</v>
       </c>
       <c r="H36" t="n">
         <v>93.13436112172582</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>21.30239922246433</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3398,7 +3398,7 @@
         <v>134.9469826428689</v>
       </c>
       <c r="T36" t="n">
-        <v>192.192932426668</v>
+        <v>120.7498319512217</v>
       </c>
       <c r="U36" t="n">
         <v>225.8112657109832</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>77.22810184760169</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.3328844140846</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>147.485201092913</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>105.5870378728063</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,25 +3471,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>102.739413241946</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>195.1205252336517</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>220.8610019386828</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2285878140705</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>206.2409881584105</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3505,19 +3505,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>411.6062992654567</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3553,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>124.7874829717001</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.0499378478622</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>77.54728525390102</v>
+        <v>186.4742147058712</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3602,7 +3602,7 @@
         <v>93.13436112172582</v>
       </c>
       <c r="I39" t="n">
-        <v>21.30239922246435</v>
+        <v>21.30239922246433</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3635,7 +3635,7 @@
         <v>134.9469826428689</v>
       </c>
       <c r="T39" t="n">
-        <v>120.7498319512208</v>
+        <v>120.7498319512217</v>
       </c>
       <c r="U39" t="n">
         <v>225.8112657109832</v>
@@ -3663,25 +3663,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>59.8066178928764</v>
+        <v>94.79299548590403</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.3328844140846</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>147.485201092913</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>105.5870378728063</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3717,13 +3717,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2285878140705</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3739,28 +3739,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>12.69474356971116</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>411.6062992654567</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>301.6186538912489</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>67.96895394968158</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>124.7874829717001</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -3799,16 +3799,16 @@
         <v>251.0499378478622</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>145.7263729522294</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3836,7 +3836,7 @@
         <v>135.3657483393379</v>
       </c>
       <c r="H42" t="n">
-        <v>42.99365986874283</v>
+        <v>93.13436112172582</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3884,7 +3884,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>155.6322839504941</v>
       </c>
       <c r="Y42" t="n">
         <v>205.6826957773044</v>
@@ -3897,19 +3897,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3948,19 +3948,19 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>195.1205252336517</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>79.50445043418918</v>
+        <v>220.8610019386828</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2285878140705</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>91.10391823537017</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -3976,10 +3976,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -3991,10 +3991,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>355.2319403865583</v>
+        <v>134.4705428986746</v>
       </c>
       <c r="H44" t="n">
-        <v>301.6186538912489</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4033,7 +4033,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.0499378478622</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4042,10 +4042,10 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4073,10 +4073,10 @@
         <v>135.3657483393379</v>
       </c>
       <c r="H45" t="n">
-        <v>93.13436112172583</v>
+        <v>93.13436112172582</v>
       </c>
       <c r="I45" t="n">
-        <v>21.30239922246436</v>
+        <v>21.30239922246433</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4106,10 +4106,10 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>63.50388216742027</v>
+        <v>134.9469826428689</v>
       </c>
       <c r="T45" t="n">
-        <v>192.192932426668</v>
+        <v>120.7498319512203</v>
       </c>
       <c r="U45" t="n">
         <v>225.8112657109832</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4143,7 +4143,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>47.73628830978226</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>102.739413241946</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>61.7391637156322</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>220.8610019386828</v>
       </c>
       <c r="U46" t="n">
         <v>286.2285878140705</v>
@@ -4197,13 +4197,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5017,37 +5017,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1635.67674096947</v>
+        <v>1278.291227825756</v>
       </c>
       <c r="C11" t="n">
-        <v>1635.67674096947</v>
+        <v>1278.291227825756</v>
       </c>
       <c r="D11" t="n">
-        <v>1635.67674096947</v>
+        <v>920.0255292190052</v>
       </c>
       <c r="E11" t="n">
-        <v>1249.888488371226</v>
+        <v>534.2372766207609</v>
       </c>
       <c r="F11" t="n">
-        <v>838.9025835816185</v>
+        <v>534.2372766207609</v>
       </c>
       <c r="G11" t="n">
-        <v>423.1386449296419</v>
+        <v>118.4733379687844</v>
       </c>
       <c r="H11" t="n">
-        <v>118.4733379687845</v>
+        <v>118.4733379687844</v>
       </c>
       <c r="I11" t="n">
-        <v>49.81782892870201</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="J11" t="n">
-        <v>181.1756535819833</v>
+        <v>181.1756535819834</v>
       </c>
       <c r="K11" t="n">
-        <v>428.7854999799487</v>
+        <v>428.7854999799488</v>
       </c>
       <c r="L11" t="n">
-        <v>772.869171454915</v>
+        <v>772.8691714549152</v>
       </c>
       <c r="M11" t="n">
         <v>1187.397991240659</v>
@@ -5059,34 +5059,34 @@
         <v>2002.031077317524</v>
       </c>
       <c r="P11" t="n">
-        <v>2299.34732796285</v>
+        <v>2299.347327962849</v>
       </c>
       <c r="Q11" t="n">
-        <v>2474.446703561748</v>
+        <v>2474.446703561746</v>
       </c>
       <c r="R11" t="n">
-        <v>2490.891446435101</v>
+        <v>2490.891446435099</v>
       </c>
       <c r="S11" t="n">
-        <v>2490.891446435101</v>
+        <v>2364.843483837422</v>
       </c>
       <c r="T11" t="n">
-        <v>2490.891446435101</v>
+        <v>2364.843483837422</v>
       </c>
       <c r="U11" t="n">
-        <v>2490.891446435101</v>
+        <v>2111.257688031501</v>
       </c>
       <c r="V11" t="n">
-        <v>2490.891446435101</v>
+        <v>1780.19480068793</v>
       </c>
       <c r="W11" t="n">
-        <v>2490.891446435101</v>
+        <v>1664.891067889877</v>
       </c>
       <c r="X11" t="n">
-        <v>2117.425688174021</v>
+        <v>1664.891067889877</v>
       </c>
       <c r="Y11" t="n">
-        <v>1727.286356198209</v>
+        <v>1664.891067889877</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>931.3030471966489</v>
+        <v>859.1382992416502</v>
       </c>
       <c r="C12" t="n">
-        <v>756.8500179155219</v>
+        <v>684.6852699605232</v>
       </c>
       <c r="D12" t="n">
-        <v>607.9156082542706</v>
+        <v>535.7508602992719</v>
       </c>
       <c r="E12" t="n">
-        <v>448.6781532488152</v>
+        <v>376.5134052938164</v>
       </c>
       <c r="F12" t="n">
-        <v>302.1435952757001</v>
+        <v>229.9788473207014</v>
       </c>
       <c r="G12" t="n">
-        <v>165.4105161450557</v>
+        <v>93.24576819005705</v>
       </c>
       <c r="H12" t="n">
-        <v>71.33540390088822</v>
+        <v>71.33540390088821</v>
       </c>
       <c r="I12" t="n">
-        <v>49.81782892870201</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="J12" t="n">
-        <v>109.2358024440161</v>
+        <v>109.235802444016</v>
       </c>
       <c r="K12" t="n">
-        <v>288.9454078621915</v>
+        <v>288.9454078621914</v>
       </c>
       <c r="L12" t="n">
         <v>576.9096910448541</v>
       </c>
       <c r="M12" t="n">
-        <v>932.3072952935257</v>
+        <v>1119.105460193358</v>
       </c>
       <c r="N12" t="n">
-        <v>1311.519861523831</v>
+        <v>1498.318026423663</v>
       </c>
       <c r="O12" t="n">
-        <v>1636.205479237587</v>
+        <v>1823.00364413742</v>
       </c>
       <c r="P12" t="n">
-        <v>2149.150088787598</v>
+        <v>2379.537551852667</v>
       </c>
       <c r="Q12" t="n">
-        <v>2468.480498228521</v>
+        <v>2490.891446435099</v>
       </c>
       <c r="R12" t="n">
-        <v>2490.891446435101</v>
+        <v>2490.891446435099</v>
       </c>
       <c r="S12" t="n">
-        <v>2354.581362957455</v>
+        <v>2354.581362957454</v>
       </c>
       <c r="T12" t="n">
-        <v>2160.447087779002</v>
+        <v>2160.447087779001</v>
       </c>
       <c r="U12" t="n">
-        <v>1932.354900192151</v>
+        <v>1932.354900192149</v>
       </c>
       <c r="V12" t="n">
-        <v>1769.367539915405</v>
+        <v>1697.202791960407</v>
       </c>
       <c r="W12" t="n">
-        <v>1515.130183187204</v>
+        <v>1442.965435232205</v>
       </c>
       <c r="X12" t="n">
-        <v>1307.278682981671</v>
+        <v>1235.113935026672</v>
       </c>
       <c r="Y12" t="n">
-        <v>1099.518384216717</v>
+        <v>1027.353636261718</v>
       </c>
     </row>
     <row r="13">
@@ -5175,34 +5175,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1085.259822331916</v>
+        <v>70.38991358805058</v>
       </c>
       <c r="C13" t="n">
-        <v>918.37904818882</v>
+        <v>70.38991358805058</v>
       </c>
       <c r="D13" t="n">
-        <v>768.2624087764842</v>
+        <v>70.38991358805058</v>
       </c>
       <c r="E13" t="n">
-        <v>620.3493151940911</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="F13" t="n">
-        <v>473.4593676961807</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="G13" t="n">
-        <v>305.4463531364993</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="H13" t="n">
-        <v>156.4714025375973</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="I13" t="n">
-        <v>49.81782892870201</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="J13" t="n">
-        <v>73.44728005477636</v>
+        <v>73.44728005477631</v>
       </c>
       <c r="K13" t="n">
-        <v>242.1145636490679</v>
+        <v>242.1145636490678</v>
       </c>
       <c r="L13" t="n">
         <v>513.4770511394356</v>
@@ -5232,19 +5232,19 @@
         <v>1085.259822331916</v>
       </c>
       <c r="U13" t="n">
-        <v>1085.259822331916</v>
+        <v>796.1400366611377</v>
       </c>
       <c r="V13" t="n">
-        <v>1085.259822331916</v>
+        <v>541.4555484552509</v>
       </c>
       <c r="W13" t="n">
-        <v>1085.259822331916</v>
+        <v>252.0383784182903</v>
       </c>
       <c r="X13" t="n">
-        <v>1085.259822331916</v>
+        <v>252.0383784182903</v>
       </c>
       <c r="Y13" t="n">
-        <v>1085.259822331916</v>
+        <v>252.0383784182903</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>68.21647660552702</v>
+        <v>1638.161580142089</v>
       </c>
       <c r="C14" t="n">
-        <v>68.21647660552702</v>
+        <v>1638.161580142089</v>
       </c>
       <c r="D14" t="n">
-        <v>68.21647660552702</v>
+        <v>1279.895881535339</v>
       </c>
       <c r="E14" t="n">
-        <v>68.21647660552702</v>
+        <v>894.1076289370947</v>
       </c>
       <c r="F14" t="n">
-        <v>68.21647660552702</v>
+        <v>483.1217241474871</v>
       </c>
       <c r="G14" t="n">
-        <v>68.21647660552702</v>
+        <v>118.4733379687844</v>
       </c>
       <c r="H14" t="n">
-        <v>49.81782892870201</v>
+        <v>118.4733379687844</v>
       </c>
       <c r="I14" t="n">
-        <v>49.81782892870201</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="J14" t="n">
-        <v>181.1756535819839</v>
+        <v>181.1756535819833</v>
       </c>
       <c r="K14" t="n">
-        <v>428.7854999799494</v>
+        <v>428.7854999799487</v>
       </c>
       <c r="L14" t="n">
-        <v>772.8691714549159</v>
+        <v>772.8691714549147</v>
       </c>
       <c r="M14" t="n">
-        <v>1187.397991240659</v>
+        <v>1187.397991240658</v>
       </c>
       <c r="N14" t="n">
-        <v>1613.248129085908</v>
+        <v>1613.248129085907</v>
       </c>
       <c r="O14" t="n">
-        <v>2002.031077317525</v>
+        <v>2002.031077317524</v>
       </c>
       <c r="P14" t="n">
-        <v>2299.34732796285</v>
+        <v>2299.347327962849</v>
       </c>
       <c r="Q14" t="n">
-        <v>2474.446703561748</v>
+        <v>2474.446703561747</v>
       </c>
       <c r="R14" t="n">
-        <v>2490.891446435101</v>
+        <v>2490.8914464351</v>
       </c>
       <c r="S14" t="n">
-        <v>2364.843483837424</v>
+        <v>2490.8914464351</v>
       </c>
       <c r="T14" t="n">
-        <v>2155.838745326147</v>
+        <v>2281.886707923823</v>
       </c>
       <c r="U14" t="n">
-        <v>1902.252949520225</v>
+        <v>2028.300912117901</v>
       </c>
       <c r="V14" t="n">
-        <v>1571.190062176654</v>
+        <v>2028.300912117901</v>
       </c>
       <c r="W14" t="n">
-        <v>1218.42140690654</v>
+        <v>2028.300912117901</v>
       </c>
       <c r="X14" t="n">
-        <v>844.9556486454605</v>
+        <v>2028.300912117901</v>
       </c>
       <c r="Y14" t="n">
-        <v>454.8163166696488</v>
+        <v>1638.161580142089</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>931.3030471966489</v>
+        <v>859.1382992416507</v>
       </c>
       <c r="C15" t="n">
-        <v>756.8500179155219</v>
+        <v>684.6852699605237</v>
       </c>
       <c r="D15" t="n">
-        <v>607.9156082542706</v>
+        <v>535.7508602992724</v>
       </c>
       <c r="E15" t="n">
-        <v>448.6781532488152</v>
+        <v>376.5134052938169</v>
       </c>
       <c r="F15" t="n">
-        <v>302.1435952757001</v>
+        <v>229.9788473207019</v>
       </c>
       <c r="G15" t="n">
-        <v>165.4105161450557</v>
+        <v>93.2457681900575</v>
       </c>
       <c r="H15" t="n">
-        <v>71.33540390088822</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="I15" t="n">
-        <v>49.81782892870201</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="J15" t="n">
         <v>234.0659274310208</v>
       </c>
       <c r="K15" t="n">
-        <v>413.7755328491963</v>
+        <v>560.634250650492</v>
       </c>
       <c r="L15" t="n">
-        <v>701.7398160318589</v>
+        <v>848.5985338331546</v>
       </c>
       <c r="M15" t="n">
-        <v>1318.235449024546</v>
+        <v>1203.996138081826</v>
       </c>
       <c r="N15" t="n">
-        <v>1813.596167377201</v>
+        <v>1583.208704312131</v>
       </c>
       <c r="O15" t="n">
-        <v>2138.281785090959</v>
+        <v>1907.894322025888</v>
       </c>
       <c r="P15" t="n">
-        <v>2379.537551852668</v>
+        <v>2149.150088787597</v>
       </c>
       <c r="Q15" t="n">
-        <v>2490.891446435101</v>
+        <v>2468.48049822852</v>
       </c>
       <c r="R15" t="n">
-        <v>2490.891446435101</v>
+        <v>2490.8914464351</v>
       </c>
       <c r="S15" t="n">
-        <v>2354.581362957455</v>
+        <v>2354.581362957454</v>
       </c>
       <c r="T15" t="n">
-        <v>2160.447087779002</v>
+        <v>2160.447087779001</v>
       </c>
       <c r="U15" t="n">
-        <v>1932.354900192151</v>
+        <v>1932.35490019215</v>
       </c>
       <c r="V15" t="n">
-        <v>1697.202791960408</v>
+        <v>1697.202791960407</v>
       </c>
       <c r="W15" t="n">
-        <v>1442.965435232206</v>
+        <v>1442.965435232205</v>
       </c>
       <c r="X15" t="n">
-        <v>1235.113935026674</v>
+        <v>1235.113935026673</v>
       </c>
       <c r="Y15" t="n">
-        <v>1027.35363626172</v>
+        <v>1027.353636261719</v>
       </c>
     </row>
     <row r="16">
@@ -5412,46 +5412,46 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>49.81782892870201</v>
+        <v>371.2585383108768</v>
       </c>
       <c r="C16" t="n">
-        <v>49.81782892870201</v>
+        <v>202.3223553829699</v>
       </c>
       <c r="D16" t="n">
-        <v>49.81782892870201</v>
+        <v>202.3223553829699</v>
       </c>
       <c r="E16" t="n">
-        <v>49.81782892870201</v>
+        <v>202.3223553829699</v>
       </c>
       <c r="F16" t="n">
-        <v>49.81782892870201</v>
+        <v>55.43240788505955</v>
       </c>
       <c r="G16" t="n">
-        <v>49.81782892870201</v>
+        <v>55.43240788505955</v>
       </c>
       <c r="H16" t="n">
-        <v>49.81782892870201</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="I16" t="n">
-        <v>49.81782892870201</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="J16" t="n">
-        <v>73.44728005477637</v>
+        <v>73.44728005477634</v>
       </c>
       <c r="K16" t="n">
         <v>242.1145636490679</v>
       </c>
       <c r="L16" t="n">
-        <v>513.4770511394357</v>
+        <v>513.4770511394356</v>
       </c>
       <c r="M16" t="n">
-        <v>809.9798694642502</v>
+        <v>809.9798694642501</v>
       </c>
       <c r="N16" t="n">
-        <v>1104.867129907539</v>
+        <v>1104.867129907538</v>
       </c>
       <c r="O16" t="n">
-        <v>1361.226948298603</v>
+        <v>1361.226948298602</v>
       </c>
       <c r="P16" t="n">
         <v>1557.066378230431</v>
@@ -5460,28 +5460,28 @@
         <v>1609.220368204927</v>
       </c>
       <c r="R16" t="n">
-        <v>1505.443183112052</v>
+        <v>1609.220368204927</v>
       </c>
       <c r="S16" t="n">
-        <v>1308.351743482101</v>
+        <v>1609.220368204927</v>
       </c>
       <c r="T16" t="n">
-        <v>1085.259822331916</v>
+        <v>1386.128447054742</v>
       </c>
       <c r="U16" t="n">
-        <v>796.1400366611382</v>
+        <v>1097.008661383964</v>
       </c>
       <c r="V16" t="n">
-        <v>541.4555484552513</v>
+        <v>842.3241731780771</v>
       </c>
       <c r="W16" t="n">
-        <v>252.0383784182907</v>
+        <v>552.9070031411165</v>
       </c>
       <c r="X16" t="n">
-        <v>49.81782892870201</v>
+        <v>552.9070031411165</v>
       </c>
       <c r="Y16" t="n">
-        <v>49.81782892870201</v>
+        <v>552.9070031411165</v>
       </c>
     </row>
     <row r="17">
@@ -5491,34 +5491,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2362.904956516632</v>
+        <v>776.7349359755608</v>
       </c>
       <c r="C17" t="n">
-        <v>1993.942439576221</v>
+        <v>407.7724190351491</v>
       </c>
       <c r="D17" t="n">
-        <v>1635.67674096947</v>
+        <v>49.81782892870201</v>
       </c>
       <c r="E17" t="n">
-        <v>1249.888488371226</v>
+        <v>49.81782892870201</v>
       </c>
       <c r="F17" t="n">
-        <v>838.9025835816184</v>
+        <v>49.81782892870201</v>
       </c>
       <c r="G17" t="n">
-        <v>423.1386449296419</v>
+        <v>49.81782892870201</v>
       </c>
       <c r="H17" t="n">
-        <v>118.4733379687844</v>
+        <v>49.81782892870201</v>
       </c>
       <c r="I17" t="n">
-        <v>49.81782892870203</v>
+        <v>49.81782892870201</v>
       </c>
       <c r="J17" t="n">
-        <v>181.1756535819834</v>
+        <v>181.1756535819835</v>
       </c>
       <c r="K17" t="n">
-        <v>428.7854999799488</v>
+        <v>428.785499979949</v>
       </c>
       <c r="L17" t="n">
         <v>772.8691714549154</v>
@@ -5533,10 +5533,10 @@
         <v>2002.031077317525</v>
       </c>
       <c r="P17" t="n">
-        <v>2299.347327962851</v>
+        <v>2299.34732796285</v>
       </c>
       <c r="Q17" t="n">
-        <v>2474.446703561749</v>
+        <v>2474.446703561748</v>
       </c>
       <c r="R17" t="n">
         <v>2490.891446435101</v>
@@ -5548,19 +5548,19 @@
         <v>2490.891446435101</v>
       </c>
       <c r="U17" t="n">
-        <v>2490.891446435101</v>
+        <v>2237.305650629179</v>
       </c>
       <c r="V17" t="n">
-        <v>2490.891446435101</v>
+        <v>1906.242763285608</v>
       </c>
       <c r="W17" t="n">
-        <v>2490.891446435101</v>
+        <v>1553.474108015494</v>
       </c>
       <c r="X17" t="n">
-        <v>2490.891446435101</v>
+        <v>1553.474108015494</v>
       </c>
       <c r="Y17" t="n">
-        <v>2490.891446435101</v>
+        <v>1163.334776039683</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>931.3030471966489</v>
+        <v>859.1382992416516</v>
       </c>
       <c r="C18" t="n">
-        <v>756.8500179155219</v>
+        <v>684.6852699605246</v>
       </c>
       <c r="D18" t="n">
-        <v>607.9156082542706</v>
+        <v>535.7508602992733</v>
       </c>
       <c r="E18" t="n">
-        <v>448.6781532488152</v>
+        <v>376.5134052938178</v>
       </c>
       <c r="F18" t="n">
-        <v>302.1435952757001</v>
+        <v>229.9788473207028</v>
       </c>
       <c r="G18" t="n">
-        <v>165.4105161450557</v>
+        <v>93.24576819005841</v>
       </c>
       <c r="H18" t="n">
-        <v>71.33540390088822</v>
+        <v>71.33540390088821</v>
       </c>
       <c r="I18" t="n">
-        <v>49.81782892870203</v>
+        <v>49.81782892870201</v>
       </c>
       <c r="J18" t="n">
         <v>234.0659274310208</v>
       </c>
       <c r="K18" t="n">
-        <v>583.0451988570724</v>
+        <v>560.6342506504923</v>
       </c>
       <c r="L18" t="n">
-        <v>871.0094820397351</v>
+        <v>848.598533833155</v>
       </c>
       <c r="M18" t="n">
-        <v>1226.407086288407</v>
+        <v>1203.996138081827</v>
       </c>
       <c r="N18" t="n">
-        <v>1605.619652518712</v>
+        <v>1583.208704312132</v>
       </c>
       <c r="O18" t="n">
-        <v>1930.305270232469</v>
+        <v>1907.894322025889</v>
       </c>
       <c r="P18" t="n">
-        <v>2171.561036994178</v>
+        <v>2149.150088787598</v>
       </c>
       <c r="Q18" t="n">
-        <v>2490.891446435101</v>
+        <v>2468.480498228521</v>
       </c>
       <c r="R18" t="n">
         <v>2490.891446435101</v>
       </c>
       <c r="S18" t="n">
-        <v>2354.581362957456</v>
+        <v>2354.581362957455</v>
       </c>
       <c r="T18" t="n">
-        <v>2160.447087779003</v>
+        <v>2160.447087779002</v>
       </c>
       <c r="U18" t="n">
         <v>1932.354900192151</v>
       </c>
       <c r="V18" t="n">
-        <v>1697.202791960409</v>
+        <v>1697.202791960408</v>
       </c>
       <c r="W18" t="n">
-        <v>1442.965435232207</v>
+        <v>1442.965435232206</v>
       </c>
       <c r="X18" t="n">
         <v>1235.113935026674</v>
       </c>
       <c r="Y18" t="n">
-        <v>1099.518384216717</v>
+        <v>1027.35363626172</v>
       </c>
     </row>
     <row r="19">
@@ -5649,31 +5649,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>864.4672431883863</v>
+        <v>328.9089723569456</v>
       </c>
       <c r="C19" t="n">
-        <v>864.4672431883863</v>
+        <v>159.9727894290387</v>
       </c>
       <c r="D19" t="n">
-        <v>714.3506037760505</v>
+        <v>159.9727894290387</v>
       </c>
       <c r="E19" t="n">
-        <v>620.3493151940911</v>
+        <v>159.9727894290387</v>
       </c>
       <c r="F19" t="n">
-        <v>473.4593676961807</v>
+        <v>159.9727894290387</v>
       </c>
       <c r="G19" t="n">
-        <v>305.4463531364993</v>
+        <v>49.81782892870201</v>
       </c>
       <c r="H19" t="n">
-        <v>156.4714025375973</v>
+        <v>49.81782892870201</v>
       </c>
       <c r="I19" t="n">
-        <v>49.81782892870203</v>
+        <v>49.81782892870201</v>
       </c>
       <c r="J19" t="n">
-        <v>73.4472800547764</v>
+        <v>73.44728005477639</v>
       </c>
       <c r="K19" t="n">
         <v>242.114563649068</v>
@@ -5700,25 +5700,25 @@
         <v>1505.443183112052</v>
       </c>
       <c r="S19" t="n">
-        <v>1308.351743482101</v>
+        <v>1505.443183112052</v>
       </c>
       <c r="T19" t="n">
-        <v>1085.259822331916</v>
+        <v>1282.351261961868</v>
       </c>
       <c r="U19" t="n">
-        <v>1085.259822331916</v>
+        <v>993.2314762910895</v>
       </c>
       <c r="V19" t="n">
-        <v>1085.259822331916</v>
+        <v>738.5469880852027</v>
       </c>
       <c r="W19" t="n">
-        <v>1085.259822331916</v>
+        <v>738.5469880852027</v>
       </c>
       <c r="X19" t="n">
-        <v>1085.259822331916</v>
+        <v>510.5574371871853</v>
       </c>
       <c r="Y19" t="n">
-        <v>864.4672431883863</v>
+        <v>510.5574371871853</v>
       </c>
     </row>
     <row r="20">
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>792.1011618700536</v>
+        <v>1334.51851599157</v>
       </c>
       <c r="C20" t="n">
-        <v>423.1386449296419</v>
+        <v>1204.857684923304</v>
       </c>
       <c r="D20" t="n">
-        <v>423.1386449296419</v>
+        <v>846.5919863165539</v>
       </c>
       <c r="E20" t="n">
-        <v>423.1386449296419</v>
+        <v>460.8037337183096</v>
       </c>
       <c r="F20" t="n">
-        <v>423.1386449296419</v>
+        <v>49.81782892870203</v>
       </c>
       <c r="G20" t="n">
-        <v>423.1386449296419</v>
+        <v>49.81782892870203</v>
       </c>
       <c r="H20" t="n">
-        <v>118.4733379687844</v>
+        <v>49.81782892870203</v>
       </c>
       <c r="I20" t="n">
         <v>49.81782892870203</v>
@@ -5755,19 +5755,19 @@
         <v>181.1756535819836</v>
       </c>
       <c r="K20" t="n">
-        <v>428.7854999799497</v>
+        <v>428.7854999799488</v>
       </c>
       <c r="L20" t="n">
-        <v>772.8691714549163</v>
+        <v>772.8691714549154</v>
       </c>
       <c r="M20" t="n">
-        <v>1187.39799124066</v>
+        <v>1187.397991240659</v>
       </c>
       <c r="N20" t="n">
-        <v>1613.248129085909</v>
+        <v>1613.248129085908</v>
       </c>
       <c r="O20" t="n">
-        <v>2002.031077317526</v>
+        <v>2002.031077317525</v>
       </c>
       <c r="P20" t="n">
         <v>2299.347327962851</v>
@@ -5779,25 +5779,25 @@
         <v>2490.891446435101</v>
       </c>
       <c r="S20" t="n">
-        <v>2490.891446435101</v>
+        <v>2364.843483837425</v>
       </c>
       <c r="T20" t="n">
-        <v>2490.891446435101</v>
+        <v>2364.843483837425</v>
       </c>
       <c r="U20" t="n">
-        <v>2239.53779472063</v>
+        <v>2111.257688031503</v>
       </c>
       <c r="V20" t="n">
-        <v>1908.474907377059</v>
+        <v>2111.257688031503</v>
       </c>
       <c r="W20" t="n">
-        <v>1555.706252106945</v>
+        <v>2111.257688031503</v>
       </c>
       <c r="X20" t="n">
-        <v>1182.240493845865</v>
+        <v>2111.257688031503</v>
       </c>
       <c r="Y20" t="n">
-        <v>792.1011618700536</v>
+        <v>1721.118356055691</v>
       </c>
     </row>
     <row r="21">
@@ -5837,40 +5837,40 @@
         <v>675.5961174916492</v>
       </c>
       <c r="L21" t="n">
-        <v>963.5604006743119</v>
+        <v>1056.575048691647</v>
       </c>
       <c r="M21" t="n">
-        <v>1318.958004922984</v>
+        <v>1411.972652940318</v>
       </c>
       <c r="N21" t="n">
-        <v>1698.170571153289</v>
+        <v>1791.185219170623</v>
       </c>
       <c r="O21" t="n">
-        <v>2022.856188867046</v>
+        <v>2115.87083688438</v>
       </c>
       <c r="P21" t="n">
-        <v>2379.537551852669</v>
+        <v>2357.12660364609</v>
       </c>
       <c r="Q21" t="n">
-        <v>2490.891446435101</v>
+        <v>2468.480498228522</v>
       </c>
       <c r="R21" t="n">
         <v>2490.891446435101</v>
       </c>
       <c r="S21" t="n">
-        <v>2354.581362957456</v>
+        <v>2426.746110912452</v>
       </c>
       <c r="T21" t="n">
-        <v>2160.447087779003</v>
+        <v>2232.611835734</v>
       </c>
       <c r="U21" t="n">
-        <v>1932.354900192151</v>
+        <v>2004.519648147148</v>
       </c>
       <c r="V21" t="n">
-        <v>1697.202791960409</v>
+        <v>1769.367539915405</v>
       </c>
       <c r="W21" t="n">
-        <v>1442.965435232207</v>
+        <v>1515.130183187204</v>
       </c>
       <c r="X21" t="n">
         <v>1307.278682981671</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1316.359193320467</v>
+        <v>49.81782892870203</v>
       </c>
       <c r="C22" t="n">
-        <v>1147.42301039256</v>
+        <v>49.81782892870203</v>
       </c>
       <c r="D22" t="n">
-        <v>997.3063709802244</v>
+        <v>49.81782892870203</v>
       </c>
       <c r="E22" t="n">
-        <v>931.4889071588764</v>
+        <v>49.81782892870203</v>
       </c>
       <c r="F22" t="n">
-        <v>931.4889071588764</v>
+        <v>49.81782892870203</v>
       </c>
       <c r="G22" t="n">
-        <v>931.4889071588764</v>
+        <v>49.81782892870203</v>
       </c>
       <c r="H22" t="n">
-        <v>931.4889071588764</v>
+        <v>49.81782892870203</v>
       </c>
       <c r="I22" t="n">
-        <v>931.4889071588764</v>
+        <v>49.81782892870203</v>
       </c>
       <c r="J22" t="n">
-        <v>955.1183582849508</v>
+        <v>73.4472800547764</v>
       </c>
       <c r="K22" t="n">
-        <v>1123.785641879242</v>
+        <v>242.114563649068</v>
       </c>
       <c r="L22" t="n">
-        <v>1395.14812936961</v>
+        <v>513.4770511394358</v>
       </c>
       <c r="M22" t="n">
-        <v>1691.650947694425</v>
+        <v>809.9798694642504</v>
       </c>
       <c r="N22" t="n">
-        <v>1986.538208137713</v>
+        <v>1104.867129907539</v>
       </c>
       <c r="O22" t="n">
-        <v>2242.898026528777</v>
+        <v>1361.226948298603</v>
       </c>
       <c r="P22" t="n">
-        <v>2438.737456460606</v>
+        <v>1557.066378230431</v>
       </c>
       <c r="Q22" t="n">
-        <v>2490.891446435101</v>
+        <v>1609.220368204927</v>
       </c>
       <c r="R22" t="n">
-        <v>2490.891446435101</v>
+        <v>1609.220368204927</v>
       </c>
       <c r="S22" t="n">
-        <v>2490.891446435101</v>
+        <v>1412.128928574976</v>
       </c>
       <c r="T22" t="n">
-        <v>2490.891446435101</v>
+        <v>1189.037007424791</v>
       </c>
       <c r="U22" t="n">
-        <v>2490.891446435101</v>
+        <v>899.917221754013</v>
       </c>
       <c r="V22" t="n">
-        <v>2236.206958229215</v>
+        <v>645.2327335481261</v>
       </c>
       <c r="W22" t="n">
-        <v>1946.789788192254</v>
+        <v>355.8155635111655</v>
       </c>
       <c r="X22" t="n">
-        <v>1718.800237294237</v>
+        <v>127.8260126131482</v>
       </c>
       <c r="Y22" t="n">
-        <v>1498.007658150707</v>
+        <v>49.81782892870203</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1695.572994504761</v>
+        <v>395.4397703247109</v>
       </c>
       <c r="C23" t="n">
-        <v>1695.572994504761</v>
+        <v>395.4397703247109</v>
       </c>
       <c r="D23" t="n">
-        <v>1337.30729589801</v>
+        <v>395.4397703247109</v>
       </c>
       <c r="E23" t="n">
-        <v>951.5190432997658</v>
+        <v>395.4397703247109</v>
       </c>
       <c r="F23" t="n">
-        <v>540.5331385101583</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="G23" t="n">
-        <v>124.7691998581818</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="H23" t="n">
-        <v>51.29057888696727</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="I23" t="n">
-        <v>51.29057888696727</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="J23" t="n">
         <v>182.6484035402487</v>
       </c>
       <c r="K23" t="n">
-        <v>430.258249938214</v>
+        <v>430.2582499382142</v>
       </c>
       <c r="L23" t="n">
-        <v>774.3419214131804</v>
+        <v>774.3419214131809</v>
       </c>
       <c r="M23" t="n">
-        <v>1188.870741198924</v>
+        <v>1188.870741198925</v>
       </c>
       <c r="N23" t="n">
-        <v>1614.720879044173</v>
+        <v>1621.826371324918</v>
       </c>
       <c r="O23" t="n">
-        <v>2003.503827275789</v>
+        <v>2010.609319556535</v>
       </c>
       <c r="P23" t="n">
-        <v>2300.820077921115</v>
+        <v>2307.92557020186</v>
       </c>
       <c r="Q23" t="n">
-        <v>2483.024945800758</v>
+        <v>2483.024945800757</v>
       </c>
       <c r="R23" t="n">
         <v>2564.528944348363</v>
       </c>
       <c r="S23" t="n">
-        <v>2438.480981750687</v>
+        <v>2438.480981750686</v>
       </c>
       <c r="T23" t="n">
-        <v>2438.480981750687</v>
+        <v>2229.476243239409</v>
       </c>
       <c r="U23" t="n">
-        <v>2438.480981750687</v>
+        <v>2229.476243239409</v>
       </c>
       <c r="V23" t="n">
-        <v>2438.480981750687</v>
+        <v>1898.413355895838</v>
       </c>
       <c r="W23" t="n">
-        <v>2085.712326480572</v>
+        <v>1545.644700625724</v>
       </c>
       <c r="X23" t="n">
-        <v>2085.712326480572</v>
+        <v>1172.178942364644</v>
       </c>
       <c r="Y23" t="n">
-        <v>1695.572994504761</v>
+        <v>782.0396103888327</v>
       </c>
     </row>
     <row r="24">
@@ -6044,52 +6044,52 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>932.775797154914</v>
+        <v>932.7757971549145</v>
       </c>
       <c r="C24" t="n">
-        <v>758.322767873787</v>
+        <v>758.3227678737875</v>
       </c>
       <c r="D24" t="n">
-        <v>609.3883582125359</v>
+        <v>609.3883582125361</v>
       </c>
       <c r="E24" t="n">
-        <v>450.1509032070803</v>
+        <v>450.1509032070805</v>
       </c>
       <c r="F24" t="n">
-        <v>303.6163452339654</v>
+        <v>303.6163452339656</v>
       </c>
       <c r="G24" t="n">
-        <v>166.883266103321</v>
+        <v>166.8832661033211</v>
       </c>
       <c r="H24" t="n">
-        <v>72.80815385915349</v>
+        <v>72.80815385915346</v>
       </c>
       <c r="I24" t="n">
-        <v>51.29057888696727</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="J24" t="n">
-        <v>192.7415585031276</v>
+        <v>215.1525067097056</v>
       </c>
       <c r="K24" t="n">
-        <v>634.2717485637559</v>
+        <v>656.6826967703339</v>
       </c>
       <c r="L24" t="n">
-        <v>922.2360317464185</v>
+        <v>944.6469799529966</v>
       </c>
       <c r="M24" t="n">
-        <v>1277.63363599509</v>
+        <v>1300.044584201668</v>
       </c>
       <c r="N24" t="n">
-        <v>1656.846202225395</v>
+        <v>1679.257150431973</v>
       </c>
       <c r="O24" t="n">
-        <v>1981.531819939152</v>
+        <v>2003.94276814573</v>
       </c>
       <c r="P24" t="n">
-        <v>2222.787586700861</v>
+        <v>2245.19853490744</v>
       </c>
       <c r="Q24" t="n">
-        <v>2542.117996141784</v>
+        <v>2564.528944348363</v>
       </c>
       <c r="R24" t="n">
         <v>2564.528944348363</v>
@@ -6113,7 +6113,7 @@
         <v>1308.751432939936</v>
       </c>
       <c r="Y24" t="n">
-        <v>1100.991134174982</v>
+        <v>1100.991134174983</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1153.039498654532</v>
+        <v>129.2987625714136</v>
       </c>
       <c r="C25" t="n">
-        <v>1153.039498654532</v>
+        <v>129.2987625714136</v>
       </c>
       <c r="D25" t="n">
-        <v>1153.039498654532</v>
+        <v>129.2987625714136</v>
       </c>
       <c r="E25" t="n">
-        <v>1005.126405072138</v>
+        <v>129.2987625714136</v>
       </c>
       <c r="F25" t="n">
-        <v>1005.126405072138</v>
+        <v>129.2987625714136</v>
       </c>
       <c r="G25" t="n">
-        <v>1005.126405072138</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="H25" t="n">
-        <v>1005.126405072138</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="I25" t="n">
-        <v>1005.126405072138</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="J25" t="n">
-        <v>1028.755856198213</v>
+        <v>74.92003001304164</v>
       </c>
       <c r="K25" t="n">
-        <v>1197.423139792504</v>
+        <v>243.5873136073332</v>
       </c>
       <c r="L25" t="n">
-        <v>1468.785627282872</v>
+        <v>514.9498010977011</v>
       </c>
       <c r="M25" t="n">
-        <v>1765.288445607687</v>
+        <v>811.4526194225157</v>
       </c>
       <c r="N25" t="n">
-        <v>2060.175706050975</v>
+        <v>1106.339879865804</v>
       </c>
       <c r="O25" t="n">
-        <v>2316.535524442039</v>
+        <v>1362.699698256868</v>
       </c>
       <c r="P25" t="n">
-        <v>2512.374954373868</v>
+        <v>1558.539128188697</v>
       </c>
       <c r="Q25" t="n">
-        <v>2564.528944348363</v>
+        <v>1610.693118163193</v>
       </c>
       <c r="R25" t="n">
-        <v>2460.751759255489</v>
+        <v>1610.693118163193</v>
       </c>
       <c r="S25" t="n">
-        <v>2263.660319625537</v>
+        <v>1413.601678533241</v>
       </c>
       <c r="T25" t="n">
-        <v>2040.568398475353</v>
+        <v>1190.509757383057</v>
       </c>
       <c r="U25" t="n">
-        <v>1751.448612804575</v>
+        <v>901.3899717122785</v>
       </c>
       <c r="V25" t="n">
-        <v>1496.764124598688</v>
+        <v>646.7054835063916</v>
       </c>
       <c r="W25" t="n">
-        <v>1207.346954561727</v>
+        <v>357.288313469431</v>
       </c>
       <c r="X25" t="n">
-        <v>1153.039498654532</v>
+        <v>129.2987625714136</v>
       </c>
       <c r="Y25" t="n">
-        <v>1153.039498654532</v>
+        <v>129.2987625714136</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1575.292951821981</v>
+        <v>1203.141089158938</v>
       </c>
       <c r="C26" t="n">
-        <v>1206.33043488157</v>
+        <v>1203.141089158938</v>
       </c>
       <c r="D26" t="n">
-        <v>848.0647362748191</v>
+        <v>844.8753905521874</v>
       </c>
       <c r="E26" t="n">
-        <v>462.2764836765748</v>
+        <v>844.8753905521874</v>
       </c>
       <c r="F26" t="n">
-        <v>51.29057888696727</v>
+        <v>467.0545175389437</v>
       </c>
       <c r="G26" t="n">
         <v>51.29057888696727</v>
@@ -6226,16 +6226,16 @@
         <v>51.29057888696727</v>
       </c>
       <c r="J26" t="n">
-        <v>182.6484035402487</v>
+        <v>254.813151495246</v>
       </c>
       <c r="K26" t="n">
-        <v>502.4229978932125</v>
+        <v>502.4229978932115</v>
       </c>
       <c r="L26" t="n">
-        <v>846.506669368179</v>
+        <v>846.5066693681781</v>
       </c>
       <c r="M26" t="n">
-        <v>1261.035489153923</v>
+        <v>1261.035489153922</v>
       </c>
       <c r="N26" t="n">
         <v>1686.885626999171</v>
@@ -6259,19 +6259,19 @@
         <v>2564.528944348363</v>
       </c>
       <c r="U26" t="n">
-        <v>2564.528944348363</v>
+        <v>2310.943148542442</v>
       </c>
       <c r="V26" t="n">
-        <v>2564.528944348363</v>
+        <v>1979.880261198871</v>
       </c>
       <c r="W26" t="n">
-        <v>2564.528944348363</v>
+        <v>1979.880261198871</v>
       </c>
       <c r="X26" t="n">
-        <v>2352.032123861914</v>
+        <v>1979.880261198871</v>
       </c>
       <c r="Y26" t="n">
-        <v>1961.892791886103</v>
+        <v>1589.74092922306</v>
       </c>
     </row>
     <row r="27">
@@ -6305,37 +6305,37 @@
         <v>51.29057888696727</v>
       </c>
       <c r="J27" t="n">
-        <v>110.7085524022813</v>
+        <v>235.5386773892861</v>
       </c>
       <c r="K27" t="n">
-        <v>290.4181578204567</v>
+        <v>656.6826967703344</v>
       </c>
       <c r="L27" t="n">
-        <v>925.1390715466766</v>
+        <v>944.6469799529971</v>
       </c>
       <c r="M27" t="n">
-        <v>1280.536675795348</v>
+        <v>1300.044584201669</v>
       </c>
       <c r="N27" t="n">
-        <v>1659.749242025653</v>
+        <v>1679.257150431974</v>
       </c>
       <c r="O27" t="n">
-        <v>1984.43485973941</v>
+        <v>2003.942768145731</v>
       </c>
       <c r="P27" t="n">
-        <v>2430.764101559352</v>
+        <v>2245.19853490744</v>
       </c>
       <c r="Q27" t="n">
-        <v>2542.117996141784</v>
+        <v>2564.528944348363</v>
       </c>
       <c r="R27" t="n">
         <v>2564.528944348363</v>
       </c>
       <c r="S27" t="n">
-        <v>2428.218860870718</v>
+        <v>2428.218860870717</v>
       </c>
       <c r="T27" t="n">
-        <v>2234.084585692266</v>
+        <v>2234.084585692265</v>
       </c>
       <c r="U27" t="n">
         <v>2005.992398105413</v>
@@ -6360,40 +6360,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1088.787981074992</v>
+        <v>418.7159326083743</v>
       </c>
       <c r="C28" t="n">
-        <v>919.8517981470852</v>
+        <v>418.7159326083743</v>
       </c>
       <c r="D28" t="n">
-        <v>769.7351587347495</v>
+        <v>268.5992931960385</v>
       </c>
       <c r="E28" t="n">
-        <v>621.8220651523563</v>
+        <v>268.5992931960385</v>
       </c>
       <c r="F28" t="n">
-        <v>474.932117654446</v>
+        <v>268.5992931960385</v>
       </c>
       <c r="G28" t="n">
-        <v>306.9191030947646</v>
+        <v>200.2655294858693</v>
       </c>
       <c r="H28" t="n">
-        <v>157.9441524958626</v>
+        <v>51.29057888696727</v>
       </c>
       <c r="I28" t="n">
         <v>51.29057888696727</v>
       </c>
       <c r="J28" t="n">
-        <v>74.92003001304161</v>
+        <v>74.92003001304164</v>
       </c>
       <c r="K28" t="n">
-        <v>243.5873136073331</v>
+        <v>243.5873136073332</v>
       </c>
       <c r="L28" t="n">
-        <v>514.949801097701</v>
+        <v>514.9498010977011</v>
       </c>
       <c r="M28" t="n">
-        <v>811.4526194225155</v>
+        <v>811.4526194225157</v>
       </c>
       <c r="N28" t="n">
         <v>1106.339879865804</v>
@@ -6402,34 +6402,34 @@
         <v>1362.699698256868</v>
       </c>
       <c r="P28" t="n">
-        <v>1558.539128188696</v>
+        <v>1558.539128188697</v>
       </c>
       <c r="Q28" t="n">
-        <v>1610.693118163192</v>
+        <v>1610.693118163193</v>
       </c>
       <c r="R28" t="n">
-        <v>1610.693118163192</v>
+        <v>1610.693118163193</v>
       </c>
       <c r="S28" t="n">
-        <v>1610.693118163192</v>
+        <v>1413.601678533241</v>
       </c>
       <c r="T28" t="n">
-        <v>1610.693118163192</v>
+        <v>1190.509757383057</v>
       </c>
       <c r="U28" t="n">
-        <v>1610.693118163192</v>
+        <v>901.3899717122785</v>
       </c>
       <c r="V28" t="n">
-        <v>1610.693118163192</v>
+        <v>646.7054835063916</v>
       </c>
       <c r="W28" t="n">
-        <v>1610.693118163192</v>
+        <v>646.7054835063916</v>
       </c>
       <c r="X28" t="n">
-        <v>1491.229025048762</v>
+        <v>418.7159326083743</v>
       </c>
       <c r="Y28" t="n">
-        <v>1270.436445905232</v>
+        <v>418.7159326083743</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1414.32401404735</v>
+        <v>1205.319275536073</v>
       </c>
       <c r="C29" t="n">
-        <v>1045.361497106938</v>
+        <v>1205.319275536073</v>
       </c>
       <c r="D29" t="n">
-        <v>1045.361497106938</v>
+        <v>1205.319275536073</v>
       </c>
       <c r="E29" t="n">
-        <v>659.5732445086937</v>
+        <v>878.0404223285514</v>
       </c>
       <c r="F29" t="n">
-        <v>248.5873397190862</v>
+        <v>467.0545175389437</v>
       </c>
       <c r="G29" t="n">
         <v>51.29057888696726</v>
@@ -6463,22 +6463,22 @@
         <v>51.29057888696726</v>
       </c>
       <c r="J29" t="n">
-        <v>182.6484035402487</v>
+        <v>254.8131514952456</v>
       </c>
       <c r="K29" t="n">
-        <v>430.258249938214</v>
+        <v>502.4229978932111</v>
       </c>
       <c r="L29" t="n">
-        <v>774.3419214131804</v>
+        <v>846.5066693681777</v>
       </c>
       <c r="M29" t="n">
-        <v>1188.870741198924</v>
+        <v>1261.035489153922</v>
       </c>
       <c r="N29" t="n">
-        <v>1614.720879044173</v>
+        <v>1686.88562699917</v>
       </c>
       <c r="O29" t="n">
-        <v>2003.503827275789</v>
+        <v>2075.668575230787</v>
       </c>
       <c r="P29" t="n">
         <v>2372.984825876113</v>
@@ -6493,22 +6493,22 @@
         <v>2564.528944348363</v>
       </c>
       <c r="T29" t="n">
-        <v>2564.528944348363</v>
+        <v>2355.524205837086</v>
       </c>
       <c r="U29" t="n">
-        <v>2564.528944348363</v>
+        <v>2355.524205837086</v>
       </c>
       <c r="V29" t="n">
-        <v>2564.528944348363</v>
+        <v>2355.524205837086</v>
       </c>
       <c r="W29" t="n">
-        <v>2564.528944348363</v>
+        <v>2355.524205837086</v>
       </c>
       <c r="X29" t="n">
-        <v>2191.063186087283</v>
+        <v>1982.058447576006</v>
       </c>
       <c r="Y29" t="n">
-        <v>1800.923854111471</v>
+        <v>1591.919115600194</v>
       </c>
     </row>
     <row r="30">
@@ -6518,22 +6518,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>932.7757971549136</v>
+        <v>932.7757971549145</v>
       </c>
       <c r="C30" t="n">
-        <v>758.3227678737866</v>
+        <v>758.3227678737875</v>
       </c>
       <c r="D30" t="n">
-        <v>609.3883582125352</v>
+        <v>609.3883582125361</v>
       </c>
       <c r="E30" t="n">
-        <v>450.1509032070796</v>
+        <v>450.1509032070805</v>
       </c>
       <c r="F30" t="n">
-        <v>303.6163452339647</v>
+        <v>303.6163452339656</v>
       </c>
       <c r="G30" t="n">
-        <v>166.8832661033207</v>
+        <v>166.8832661033211</v>
       </c>
       <c r="H30" t="n">
         <v>72.80815385915346</v>
@@ -6542,28 +6542,28 @@
         <v>51.29057888696726</v>
       </c>
       <c r="J30" t="n">
-        <v>127.7070010306074</v>
+        <v>235.5386773892861</v>
       </c>
       <c r="K30" t="n">
-        <v>307.4166064487828</v>
+        <v>656.6826967703339</v>
       </c>
       <c r="L30" t="n">
-        <v>595.3808896314454</v>
+        <v>944.6469799529966</v>
       </c>
       <c r="M30" t="n">
-        <v>1230.101803357665</v>
+        <v>1300.044584201668</v>
       </c>
       <c r="N30" t="n">
-        <v>1864.822717083885</v>
+        <v>1679.257150431973</v>
       </c>
       <c r="O30" t="n">
-        <v>2189.508334797642</v>
+        <v>2003.94276814573</v>
       </c>
       <c r="P30" t="n">
-        <v>2430.764101559351</v>
+        <v>2245.19853490744</v>
       </c>
       <c r="Q30" t="n">
-        <v>2542.117996141784</v>
+        <v>2564.528944348363</v>
       </c>
       <c r="R30" t="n">
         <v>2564.528944348363</v>
@@ -6572,22 +6572,22 @@
         <v>2428.218860870717</v>
       </c>
       <c r="T30" t="n">
-        <v>2234.084585692264</v>
+        <v>2234.084585692265</v>
       </c>
       <c r="U30" t="n">
         <v>2005.992398105413</v>
       </c>
       <c r="V30" t="n">
-        <v>1770.84028987367</v>
+        <v>1770.840289873671</v>
       </c>
       <c r="W30" t="n">
-        <v>1516.602933145468</v>
+        <v>1516.602933145469</v>
       </c>
       <c r="X30" t="n">
         <v>1308.751432939936</v>
       </c>
       <c r="Y30" t="n">
-        <v>1100.991134174982</v>
+        <v>1100.991134174983</v>
       </c>
     </row>
     <row r="31">
@@ -6597,40 +6597,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1088.787981074992</v>
+        <v>129.2987625714136</v>
       </c>
       <c r="C31" t="n">
-        <v>919.8517981470852</v>
+        <v>129.2987625714136</v>
       </c>
       <c r="D31" t="n">
-        <v>769.7351587347495</v>
+        <v>129.2987625714136</v>
       </c>
       <c r="E31" t="n">
-        <v>621.8220651523563</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="F31" t="n">
-        <v>474.932117654446</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="G31" t="n">
-        <v>306.9191030947646</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="H31" t="n">
-        <v>157.9441524958626</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="I31" t="n">
         <v>51.29057888696726</v>
       </c>
       <c r="J31" t="n">
-        <v>74.92003001304161</v>
+        <v>74.92003001304164</v>
       </c>
       <c r="K31" t="n">
-        <v>243.5873136073331</v>
+        <v>243.5873136073332</v>
       </c>
       <c r="L31" t="n">
-        <v>514.949801097701</v>
+        <v>514.9498010977011</v>
       </c>
       <c r="M31" t="n">
-        <v>811.4526194225155</v>
+        <v>811.4526194225157</v>
       </c>
       <c r="N31" t="n">
         <v>1106.339879865804</v>
@@ -6639,34 +6639,34 @@
         <v>1362.699698256868</v>
       </c>
       <c r="P31" t="n">
-        <v>1558.539128188696</v>
+        <v>1558.539128188697</v>
       </c>
       <c r="Q31" t="n">
-        <v>1610.693118163192</v>
+        <v>1610.693118163193</v>
       </c>
       <c r="R31" t="n">
-        <v>1610.693118163192</v>
+        <v>1610.693118163193</v>
       </c>
       <c r="S31" t="n">
-        <v>1610.693118163192</v>
+        <v>1413.601678533241</v>
       </c>
       <c r="T31" t="n">
-        <v>1387.601197013007</v>
+        <v>1190.509757383057</v>
       </c>
       <c r="U31" t="n">
-        <v>1387.601197013007</v>
+        <v>901.3899717122785</v>
       </c>
       <c r="V31" t="n">
-        <v>1387.601197013007</v>
+        <v>646.7054835063916</v>
       </c>
       <c r="W31" t="n">
-        <v>1387.601197013007</v>
+        <v>357.288313469431</v>
       </c>
       <c r="X31" t="n">
-        <v>1159.61164611499</v>
+        <v>129.2987625714136</v>
       </c>
       <c r="Y31" t="n">
-        <v>1159.61164611499</v>
+        <v>129.2987625714136</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1117.092311497787</v>
+        <v>1263.828674926796</v>
       </c>
       <c r="C32" t="n">
-        <v>1117.092311497787</v>
+        <v>1263.828674926796</v>
       </c>
       <c r="D32" t="n">
-        <v>1117.092311497787</v>
+        <v>1263.828674926796</v>
       </c>
       <c r="E32" t="n">
-        <v>1117.092311497787</v>
+        <v>878.0404223285514</v>
       </c>
       <c r="F32" t="n">
-        <v>706.1064067081791</v>
+        <v>467.0545175389437</v>
       </c>
       <c r="G32" t="n">
-        <v>290.3424680562026</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="H32" t="n">
         <v>51.29057888696726</v>
@@ -6703,49 +6703,49 @@
         <v>182.6484035402487</v>
       </c>
       <c r="K32" t="n">
-        <v>430.258249938214</v>
+        <v>430.2582499382142</v>
       </c>
       <c r="L32" t="n">
-        <v>774.3419214131804</v>
+        <v>774.3419214131809</v>
       </c>
       <c r="M32" t="n">
-        <v>1195.97623347967</v>
+        <v>1188.870741198925</v>
       </c>
       <c r="N32" t="n">
-        <v>1621.826371324918</v>
+        <v>1614.720879044173</v>
       </c>
       <c r="O32" t="n">
-        <v>2010.609319556535</v>
+        <v>2003.50382727579</v>
       </c>
       <c r="P32" t="n">
-        <v>2307.92557020186</v>
+        <v>2300.820077921116</v>
       </c>
       <c r="Q32" t="n">
-        <v>2483.024945800757</v>
+        <v>2548.08420147501</v>
       </c>
       <c r="R32" t="n">
         <v>2564.528944348363</v>
       </c>
       <c r="S32" t="n">
-        <v>2564.528944348363</v>
+        <v>2438.480981750686</v>
       </c>
       <c r="T32" t="n">
-        <v>2564.528944348363</v>
+        <v>2438.480981750686</v>
       </c>
       <c r="U32" t="n">
-        <v>2564.528944348363</v>
+        <v>2184.895185944765</v>
       </c>
       <c r="V32" t="n">
-        <v>2233.466057004792</v>
+        <v>2184.895185944765</v>
       </c>
       <c r="W32" t="n">
-        <v>1880.697401734678</v>
+        <v>2023.894273251997</v>
       </c>
       <c r="X32" t="n">
-        <v>1507.231643473598</v>
+        <v>1650.428514990917</v>
       </c>
       <c r="Y32" t="n">
-        <v>1117.092311497787</v>
+        <v>1650.428514990917</v>
       </c>
     </row>
     <row r="33">
@@ -6773,34 +6773,34 @@
         <v>166.8832661033211</v>
       </c>
       <c r="H33" t="n">
-        <v>72.80815385915366</v>
+        <v>72.80815385915385</v>
       </c>
       <c r="I33" t="n">
         <v>51.29057888696726</v>
       </c>
       <c r="J33" t="n">
-        <v>110.7085524022813</v>
+        <v>235.5386773892861</v>
       </c>
       <c r="K33" t="n">
-        <v>552.2387424629095</v>
+        <v>634.2717485637547</v>
       </c>
       <c r="L33" t="n">
-        <v>840.2030256455721</v>
+        <v>922.2360317464174</v>
       </c>
       <c r="M33" t="n">
-        <v>1195.600629894244</v>
+        <v>1277.633635995089</v>
       </c>
       <c r="N33" t="n">
-        <v>1574.813196124549</v>
+        <v>1656.846202225394</v>
       </c>
       <c r="O33" t="n">
-        <v>1899.498813838306</v>
+        <v>1981.531819939151</v>
       </c>
       <c r="P33" t="n">
-        <v>2453.17504976593</v>
+        <v>2222.787586700861</v>
       </c>
       <c r="Q33" t="n">
-        <v>2564.528944348363</v>
+        <v>2542.117996141784</v>
       </c>
       <c r="R33" t="n">
         <v>2564.528944348363</v>
@@ -6834,40 +6834,40 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1070.582980034191</v>
+        <v>129.2987625714136</v>
       </c>
       <c r="C34" t="n">
-        <v>901.6467971062837</v>
+        <v>129.2987625714136</v>
       </c>
       <c r="D34" t="n">
-        <v>751.5301576939479</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="E34" t="n">
-        <v>603.6170641115548</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="F34" t="n">
-        <v>456.7271166136444</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="G34" t="n">
-        <v>288.714102053963</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="H34" t="n">
-        <v>139.7391514550609</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="I34" t="n">
         <v>51.29057888696726</v>
       </c>
       <c r="J34" t="n">
-        <v>74.92003001304161</v>
+        <v>74.92003001304164</v>
       </c>
       <c r="K34" t="n">
-        <v>243.5873136073331</v>
+        <v>243.5873136073332</v>
       </c>
       <c r="L34" t="n">
-        <v>514.949801097701</v>
+        <v>514.9498010977011</v>
       </c>
       <c r="M34" t="n">
-        <v>811.4526194225155</v>
+        <v>811.4526194225157</v>
       </c>
       <c r="N34" t="n">
         <v>1106.339879865804</v>
@@ -6876,34 +6876,34 @@
         <v>1362.699698256868</v>
       </c>
       <c r="P34" t="n">
-        <v>1558.539128188696</v>
+        <v>1558.539128188697</v>
       </c>
       <c r="Q34" t="n">
-        <v>1610.693118163192</v>
+        <v>1610.693118163193</v>
       </c>
       <c r="R34" t="n">
-        <v>1506.915933070317</v>
+        <v>1610.693118163193</v>
       </c>
       <c r="S34" t="n">
-        <v>1506.915933070317</v>
+        <v>1413.601678533241</v>
       </c>
       <c r="T34" t="n">
-        <v>1506.915933070317</v>
+        <v>1190.509757383057</v>
       </c>
       <c r="U34" t="n">
-        <v>1506.915933070317</v>
+        <v>901.3899717122785</v>
       </c>
       <c r="V34" t="n">
-        <v>1252.23144486443</v>
+        <v>646.7054835063916</v>
       </c>
       <c r="W34" t="n">
-        <v>1252.23144486443</v>
+        <v>357.288313469431</v>
       </c>
       <c r="X34" t="n">
-        <v>1252.23144486443</v>
+        <v>129.2987625714136</v>
       </c>
       <c r="Y34" t="n">
-        <v>1252.23144486443</v>
+        <v>129.2987625714136</v>
       </c>
     </row>
     <row r="35">
@@ -6913,37 +6913,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1340.686516134087</v>
+        <v>961.0527577304899</v>
       </c>
       <c r="C35" t="n">
-        <v>971.7239991936756</v>
+        <v>961.0527577304899</v>
       </c>
       <c r="D35" t="n">
-        <v>846.5919863165539</v>
+        <v>876.5676723702861</v>
       </c>
       <c r="E35" t="n">
-        <v>460.8037337183096</v>
+        <v>876.5676723702861</v>
       </c>
       <c r="F35" t="n">
-        <v>49.81782892870201</v>
+        <v>465.5817675806785</v>
       </c>
       <c r="G35" t="n">
-        <v>49.81782892870201</v>
+        <v>49.81782892870203</v>
       </c>
       <c r="H35" t="n">
-        <v>49.81782892870201</v>
+        <v>49.81782892870203</v>
       </c>
       <c r="I35" t="n">
-        <v>49.81782892870201</v>
+        <v>49.81782892870203</v>
       </c>
       <c r="J35" t="n">
-        <v>181.1756535819842</v>
+        <v>181.1756535819835</v>
       </c>
       <c r="K35" t="n">
-        <v>428.7854999799496</v>
+        <v>428.785499979949</v>
       </c>
       <c r="L35" t="n">
-        <v>772.8691714549161</v>
+        <v>772.8691714549157</v>
       </c>
       <c r="M35" t="n">
         <v>1187.39799124066</v>
@@ -6955,34 +6955,34 @@
         <v>2002.031077317525</v>
       </c>
       <c r="P35" t="n">
-        <v>2299.34732796285</v>
+        <v>2299.347327962851</v>
       </c>
       <c r="Q35" t="n">
-        <v>2474.446703561748</v>
+        <v>2474.446703561749</v>
       </c>
       <c r="R35" t="n">
         <v>2490.891446435101</v>
       </c>
       <c r="S35" t="n">
-        <v>2490.891446435101</v>
+        <v>2364.843483837425</v>
       </c>
       <c r="T35" t="n">
-        <v>2490.891446435101</v>
+        <v>2364.843483837425</v>
       </c>
       <c r="U35" t="n">
-        <v>2490.891446435101</v>
+        <v>2111.257688031503</v>
       </c>
       <c r="V35" t="n">
-        <v>2490.891446435101</v>
+        <v>2111.257688031503</v>
       </c>
       <c r="W35" t="n">
-        <v>2490.891446435101</v>
+        <v>2111.257688031503</v>
       </c>
       <c r="X35" t="n">
-        <v>2117.425688174021</v>
+        <v>1737.791929770423</v>
       </c>
       <c r="Y35" t="n">
-        <v>1727.286356198209</v>
+        <v>1347.652597794612</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>859.1382992416516</v>
+        <v>931.3030471966489</v>
       </c>
       <c r="C36" t="n">
-        <v>684.6852699605246</v>
+        <v>756.8500179155219</v>
       </c>
       <c r="D36" t="n">
-        <v>535.7508602992733</v>
+        <v>607.9156082542706</v>
       </c>
       <c r="E36" t="n">
-        <v>376.5134052938178</v>
+        <v>448.6781532488152</v>
       </c>
       <c r="F36" t="n">
-        <v>229.9788473207028</v>
+        <v>302.1435952757001</v>
       </c>
       <c r="G36" t="n">
-        <v>143.8929411728695</v>
+        <v>165.4105161450557</v>
       </c>
       <c r="H36" t="n">
-        <v>49.81782892870201</v>
+        <v>71.33540390088822</v>
       </c>
       <c r="I36" t="n">
-        <v>49.81782892870201</v>
+        <v>49.81782892870203</v>
       </c>
       <c r="J36" t="n">
-        <v>109.2358024440161</v>
+        <v>234.0659274310208</v>
       </c>
       <c r="K36" t="n">
-        <v>288.9454078621915</v>
+        <v>560.6342506504932</v>
       </c>
       <c r="L36" t="n">
-        <v>905.4410408548789</v>
+        <v>848.5985338331559</v>
       </c>
       <c r="M36" t="n">
-        <v>1260.838645103551</v>
+        <v>1203.996138081828</v>
       </c>
       <c r="N36" t="n">
-        <v>1640.051211333855</v>
+        <v>1583.208704312133</v>
       </c>
       <c r="O36" t="n">
-        <v>1964.736829047612</v>
+        <v>1907.89432202589</v>
       </c>
       <c r="P36" t="n">
-        <v>2357.126603646089</v>
+        <v>2149.150088787599</v>
       </c>
       <c r="Q36" t="n">
-        <v>2468.480498228521</v>
+        <v>2468.480498228522</v>
       </c>
       <c r="R36" t="n">
         <v>2490.891446435101</v>
       </c>
       <c r="S36" t="n">
-        <v>2354.581362957455</v>
+        <v>2354.581362957456</v>
       </c>
       <c r="T36" t="n">
-        <v>2160.447087779002</v>
+        <v>2232.611835734</v>
       </c>
       <c r="U36" t="n">
-        <v>1932.354900192151</v>
+        <v>2004.519648147148</v>
       </c>
       <c r="V36" t="n">
-        <v>1697.202791960408</v>
+        <v>1769.367539915405</v>
       </c>
       <c r="W36" t="n">
-        <v>1442.965435232206</v>
+        <v>1515.130183187204</v>
       </c>
       <c r="X36" t="n">
-        <v>1235.113935026674</v>
+        <v>1307.278682981671</v>
       </c>
       <c r="Y36" t="n">
-        <v>1027.35363626172</v>
+        <v>1099.518384216717</v>
       </c>
     </row>
     <row r="37">
@@ -7071,46 +7071,46 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>918.37904818882</v>
+        <v>49.81782892870203</v>
       </c>
       <c r="C37" t="n">
-        <v>918.37904818882</v>
+        <v>49.81782892870203</v>
       </c>
       <c r="D37" t="n">
-        <v>768.2624087764842</v>
+        <v>49.81782892870203</v>
       </c>
       <c r="E37" t="n">
-        <v>620.3493151940911</v>
+        <v>49.81782892870203</v>
       </c>
       <c r="F37" t="n">
-        <v>473.4593676961807</v>
+        <v>49.81782892870203</v>
       </c>
       <c r="G37" t="n">
-        <v>305.4463531364993</v>
+        <v>49.81782892870203</v>
       </c>
       <c r="H37" t="n">
-        <v>156.4714025375973</v>
+        <v>49.81782892870203</v>
       </c>
       <c r="I37" t="n">
-        <v>49.81782892870201</v>
+        <v>49.81782892870203</v>
       </c>
       <c r="J37" t="n">
-        <v>73.44728005477636</v>
+        <v>73.4472800547764</v>
       </c>
       <c r="K37" t="n">
-        <v>242.1145636490679</v>
+        <v>242.114563649068</v>
       </c>
       <c r="L37" t="n">
-        <v>513.4770511394356</v>
+        <v>513.4770511394358</v>
       </c>
       <c r="M37" t="n">
-        <v>809.9798694642501</v>
+        <v>809.9798694642504</v>
       </c>
       <c r="N37" t="n">
-        <v>1104.867129907538</v>
+        <v>1104.867129907539</v>
       </c>
       <c r="O37" t="n">
-        <v>1361.226948298602</v>
+        <v>1361.226948298603</v>
       </c>
       <c r="P37" t="n">
         <v>1557.066378230431</v>
@@ -7119,28 +7119,28 @@
         <v>1609.220368204927</v>
       </c>
       <c r="R37" t="n">
-        <v>1505.443183112052</v>
+        <v>1609.220368204927</v>
       </c>
       <c r="S37" t="n">
-        <v>1308.351743482101</v>
+        <v>1412.128928574976</v>
       </c>
       <c r="T37" t="n">
-        <v>1308.351743482101</v>
+        <v>1189.037007424791</v>
       </c>
       <c r="U37" t="n">
-        <v>1308.351743482101</v>
+        <v>899.917221754013</v>
       </c>
       <c r="V37" t="n">
-        <v>1308.351743482101</v>
+        <v>645.2327335481261</v>
       </c>
       <c r="W37" t="n">
-        <v>1308.351743482101</v>
+        <v>355.8155635111655</v>
       </c>
       <c r="X37" t="n">
-        <v>1100.02751301906</v>
+        <v>127.8260126131482</v>
       </c>
       <c r="Y37" t="n">
-        <v>1100.02751301906</v>
+        <v>127.8260126131482</v>
       </c>
     </row>
     <row r="38">
@@ -7150,37 +7150,37 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1262.35592496853</v>
+        <v>1162.834297074108</v>
       </c>
       <c r="C38" t="n">
-        <v>1262.35592496853</v>
+        <v>793.8717801336968</v>
       </c>
       <c r="D38" t="n">
-        <v>1262.35592496853</v>
+        <v>435.6060815269462</v>
       </c>
       <c r="E38" t="n">
-        <v>876.5676723702861</v>
+        <v>49.81782892870203</v>
       </c>
       <c r="F38" t="n">
-        <v>465.5817675806785</v>
+        <v>49.81782892870203</v>
       </c>
       <c r="G38" t="n">
-        <v>49.81782892870201</v>
+        <v>49.81782892870203</v>
       </c>
       <c r="H38" t="n">
-        <v>49.81782892870201</v>
+        <v>49.81782892870203</v>
       </c>
       <c r="I38" t="n">
-        <v>49.81782892870201</v>
+        <v>49.81782892870203</v>
       </c>
       <c r="J38" t="n">
-        <v>181.1756535819834</v>
+        <v>181.1756535819832</v>
       </c>
       <c r="K38" t="n">
         <v>428.7854999799488</v>
       </c>
       <c r="L38" t="n">
-        <v>772.8691714549152</v>
+        <v>772.8691714549157</v>
       </c>
       <c r="M38" t="n">
         <v>1187.397991240659</v>
@@ -7195,31 +7195,31 @@
         <v>2299.34732796285</v>
       </c>
       <c r="Q38" t="n">
-        <v>2474.446703561748</v>
+        <v>2474.446703561749</v>
       </c>
       <c r="R38" t="n">
         <v>2490.891446435101</v>
       </c>
       <c r="S38" t="n">
-        <v>2490.891446435101</v>
+        <v>2364.843483837425</v>
       </c>
       <c r="T38" t="n">
-        <v>2490.891446435101</v>
+        <v>2364.843483837425</v>
       </c>
       <c r="U38" t="n">
-        <v>2490.891446435101</v>
+        <v>2111.257688031503</v>
       </c>
       <c r="V38" t="n">
-        <v>2490.891446435101</v>
+        <v>2111.257688031503</v>
       </c>
       <c r="W38" t="n">
-        <v>2412.560855269544</v>
+        <v>1922.89989539931</v>
       </c>
       <c r="X38" t="n">
-        <v>2039.095097008464</v>
+        <v>1549.43413713823</v>
       </c>
       <c r="Y38" t="n">
-        <v>1648.955765032652</v>
+        <v>1549.43413713823</v>
       </c>
     </row>
     <row r="39">
@@ -7250,37 +7250,37 @@
         <v>71.33540390088822</v>
       </c>
       <c r="I39" t="n">
-        <v>49.81782892870201</v>
+        <v>49.81782892870203</v>
       </c>
       <c r="J39" t="n">
-        <v>109.2358024440161</v>
+        <v>119.1040605898648</v>
       </c>
       <c r="K39" t="n">
-        <v>288.9454078621915</v>
+        <v>560.6342506504932</v>
       </c>
       <c r="L39" t="n">
-        <v>576.9096910448541</v>
+        <v>848.5985338331559</v>
       </c>
       <c r="M39" t="n">
-        <v>1120.162637661387</v>
+        <v>1203.996138081828</v>
       </c>
       <c r="N39" t="n">
-        <v>1499.375203891692</v>
+        <v>1583.208704312133</v>
       </c>
       <c r="O39" t="n">
-        <v>2115.87083688438</v>
+        <v>1907.89432202589</v>
       </c>
       <c r="P39" t="n">
-        <v>2357.126603646089</v>
+        <v>2149.150088787599</v>
       </c>
       <c r="Q39" t="n">
-        <v>2468.480498228521</v>
+        <v>2468.480498228522</v>
       </c>
       <c r="R39" t="n">
         <v>2490.891446435101</v>
       </c>
       <c r="S39" t="n">
-        <v>2354.581362957455</v>
+        <v>2354.581362957456</v>
       </c>
       <c r="T39" t="n">
         <v>2232.611835734</v>
@@ -7308,46 +7308,46 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>978.7897733331396</v>
+        <v>145.5683294195142</v>
       </c>
       <c r="C40" t="n">
-        <v>918.37904818882</v>
+        <v>49.81782892870203</v>
       </c>
       <c r="D40" t="n">
-        <v>768.2624087764842</v>
+        <v>49.81782892870203</v>
       </c>
       <c r="E40" t="n">
-        <v>620.3493151940911</v>
+        <v>49.81782892870203</v>
       </c>
       <c r="F40" t="n">
-        <v>473.4593676961807</v>
+        <v>49.81782892870203</v>
       </c>
       <c r="G40" t="n">
-        <v>305.4463531364993</v>
+        <v>49.81782892870203</v>
       </c>
       <c r="H40" t="n">
-        <v>156.4714025375973</v>
+        <v>49.81782892870203</v>
       </c>
       <c r="I40" t="n">
-        <v>49.81782892870201</v>
+        <v>49.81782892870203</v>
       </c>
       <c r="J40" t="n">
-        <v>73.44728005477636</v>
+        <v>73.4472800547764</v>
       </c>
       <c r="K40" t="n">
-        <v>242.1145636490679</v>
+        <v>242.114563649068</v>
       </c>
       <c r="L40" t="n">
-        <v>513.4770511394356</v>
+        <v>513.4770511394358</v>
       </c>
       <c r="M40" t="n">
-        <v>809.9798694642501</v>
+        <v>809.9798694642504</v>
       </c>
       <c r="N40" t="n">
-        <v>1104.867129907538</v>
+        <v>1104.867129907539</v>
       </c>
       <c r="O40" t="n">
-        <v>1361.226948298602</v>
+        <v>1361.226948298603</v>
       </c>
       <c r="P40" t="n">
         <v>1557.066378230431</v>
@@ -7365,19 +7365,19 @@
         <v>1609.220368204927</v>
       </c>
       <c r="U40" t="n">
-        <v>1609.220368204927</v>
+        <v>1320.100582534149</v>
       </c>
       <c r="V40" t="n">
-        <v>1609.220368204927</v>
+        <v>1065.416094328262</v>
       </c>
       <c r="W40" t="n">
-        <v>1609.220368204927</v>
+        <v>775.9989242913014</v>
       </c>
       <c r="X40" t="n">
-        <v>1381.230817306909</v>
+        <v>548.009373393284</v>
       </c>
       <c r="Y40" t="n">
-        <v>1160.438238163379</v>
+        <v>327.2167942497539</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>777.0460444758642</v>
+        <v>1224.690836179863</v>
       </c>
       <c r="C41" t="n">
-        <v>408.0835275354525</v>
+        <v>1224.690836179863</v>
       </c>
       <c r="D41" t="n">
-        <v>49.81782892870201</v>
+        <v>1224.690836179863</v>
       </c>
       <c r="E41" t="n">
-        <v>49.81782892870201</v>
+        <v>838.9025835816183</v>
       </c>
       <c r="F41" t="n">
-        <v>49.81782892870201</v>
+        <v>838.9025835816183</v>
       </c>
       <c r="G41" t="n">
-        <v>49.81782892870201</v>
+        <v>423.1386449296418</v>
       </c>
       <c r="H41" t="n">
-        <v>49.81782892870201</v>
+        <v>118.4733379687844</v>
       </c>
       <c r="I41" t="n">
-        <v>49.81782892870201</v>
+        <v>49.817828928702</v>
       </c>
       <c r="J41" t="n">
-        <v>181.1756535819845</v>
+        <v>181.1756535819835</v>
       </c>
       <c r="K41" t="n">
-        <v>428.7854999799501</v>
+        <v>428.785499979949</v>
       </c>
       <c r="L41" t="n">
-        <v>772.8691714549166</v>
+        <v>772.8691714549155</v>
       </c>
       <c r="M41" t="n">
-        <v>1187.39799124066</v>
+        <v>1187.397991240659</v>
       </c>
       <c r="N41" t="n">
-        <v>1613.248129085909</v>
+        <v>1613.248129085907</v>
       </c>
       <c r="O41" t="n">
-        <v>2002.031077317525</v>
+        <v>2002.031077317524</v>
       </c>
       <c r="P41" t="n">
-        <v>2299.347327962851</v>
+        <v>2299.34732796285</v>
       </c>
       <c r="Q41" t="n">
-        <v>2474.446703561748</v>
+        <v>2474.446703561747</v>
       </c>
       <c r="R41" t="n">
-        <v>2490.891446435101</v>
+        <v>2490.8914464351</v>
       </c>
       <c r="S41" t="n">
-        <v>2490.891446435101</v>
+        <v>2364.843483837423</v>
       </c>
       <c r="T41" t="n">
-        <v>2490.891446435101</v>
+        <v>2364.843483837423</v>
       </c>
       <c r="U41" t="n">
-        <v>2237.305650629179</v>
+        <v>2111.257688031502</v>
       </c>
       <c r="V41" t="n">
-        <v>1906.242763285608</v>
+        <v>1964.059331514098</v>
       </c>
       <c r="W41" t="n">
-        <v>1553.474108015494</v>
+        <v>1611.290676243984</v>
       </c>
       <c r="X41" t="n">
-        <v>1180.008349754414</v>
+        <v>1611.290676243984</v>
       </c>
       <c r="Y41" t="n">
-        <v>789.8690177786027</v>
+        <v>1611.290676243984</v>
       </c>
     </row>
     <row r="42">
@@ -7466,46 +7466,46 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>859.1382992416516</v>
+        <v>909.7854722244628</v>
       </c>
       <c r="C42" t="n">
-        <v>684.6852699605246</v>
+        <v>735.3324429433358</v>
       </c>
       <c r="D42" t="n">
-        <v>535.7508602992733</v>
+        <v>586.3980332820845</v>
       </c>
       <c r="E42" t="n">
-        <v>376.5134052938178</v>
+        <v>427.1605782766289</v>
       </c>
       <c r="F42" t="n">
-        <v>229.9788473207028</v>
+        <v>280.6260203035139</v>
       </c>
       <c r="G42" t="n">
-        <v>93.24576819005841</v>
+        <v>143.8929411728695</v>
       </c>
       <c r="H42" t="n">
-        <v>49.81782892870201</v>
+        <v>49.817828928702</v>
       </c>
       <c r="I42" t="n">
-        <v>49.81782892870201</v>
+        <v>49.817828928702</v>
       </c>
       <c r="J42" t="n">
-        <v>119.1040605898647</v>
+        <v>234.0659274310208</v>
       </c>
       <c r="K42" t="n">
-        <v>560.634250650493</v>
+        <v>560.6342506504918</v>
       </c>
       <c r="L42" t="n">
-        <v>848.5985338331556</v>
+        <v>848.5985338331545</v>
       </c>
       <c r="M42" t="n">
-        <v>1203.996138081827</v>
+        <v>1203.996138081826</v>
       </c>
       <c r="N42" t="n">
-        <v>1583.208704312132</v>
+        <v>1583.208704312131</v>
       </c>
       <c r="O42" t="n">
-        <v>1907.894322025889</v>
+        <v>1907.894322025888</v>
       </c>
       <c r="P42" t="n">
         <v>2149.150088787598</v>
@@ -7514,7 +7514,7 @@
         <v>2468.480498228521</v>
       </c>
       <c r="R42" t="n">
-        <v>2490.891446435101</v>
+        <v>2490.8914464351</v>
       </c>
       <c r="S42" t="n">
         <v>2354.581362957455</v>
@@ -7523,19 +7523,19 @@
         <v>2160.447087779002</v>
       </c>
       <c r="U42" t="n">
-        <v>1932.354900192151</v>
+        <v>1932.35490019215</v>
       </c>
       <c r="V42" t="n">
-        <v>1697.202791960408</v>
+        <v>1697.202791960407</v>
       </c>
       <c r="W42" t="n">
         <v>1442.965435232206</v>
       </c>
       <c r="X42" t="n">
-        <v>1235.113935026674</v>
+        <v>1285.761108009485</v>
       </c>
       <c r="Y42" t="n">
-        <v>1027.35363626172</v>
+        <v>1078.000809244531</v>
       </c>
     </row>
     <row r="43">
@@ -7545,46 +7545,46 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>49.81782892870201</v>
+        <v>663.6736923492481</v>
       </c>
       <c r="C43" t="n">
-        <v>49.81782892870201</v>
+        <v>494.7375094213412</v>
       </c>
       <c r="D43" t="n">
-        <v>49.81782892870201</v>
+        <v>344.6208700090054</v>
       </c>
       <c r="E43" t="n">
-        <v>49.81782892870201</v>
+        <v>196.7077764266124</v>
       </c>
       <c r="F43" t="n">
-        <v>49.81782892870201</v>
+        <v>49.817828928702</v>
       </c>
       <c r="G43" t="n">
-        <v>49.81782892870201</v>
+        <v>49.817828928702</v>
       </c>
       <c r="H43" t="n">
-        <v>49.81782892870201</v>
+        <v>49.817828928702</v>
       </c>
       <c r="I43" t="n">
-        <v>49.81782892870201</v>
+        <v>49.817828928702</v>
       </c>
       <c r="J43" t="n">
-        <v>73.44728005477636</v>
+        <v>73.44728005477637</v>
       </c>
       <c r="K43" t="n">
         <v>242.1145636490679</v>
       </c>
       <c r="L43" t="n">
-        <v>513.4770511394356</v>
+        <v>513.4770511394357</v>
       </c>
       <c r="M43" t="n">
-        <v>809.9798694642501</v>
+        <v>809.9798694642503</v>
       </c>
       <c r="N43" t="n">
-        <v>1104.867129907538</v>
+        <v>1104.867129907539</v>
       </c>
       <c r="O43" t="n">
-        <v>1361.226948298602</v>
+        <v>1361.226948298603</v>
       </c>
       <c r="P43" t="n">
         <v>1557.066378230431</v>
@@ -7596,25 +7596,25 @@
         <v>1609.220368204927</v>
       </c>
       <c r="S43" t="n">
-        <v>1412.128928574975</v>
+        <v>1609.220368204927</v>
       </c>
       <c r="T43" t="n">
-        <v>1331.821402883875</v>
+        <v>1386.128447054743</v>
       </c>
       <c r="U43" t="n">
-        <v>1042.701617213097</v>
+        <v>1386.128447054743</v>
       </c>
       <c r="V43" t="n">
-        <v>788.0171290072101</v>
+        <v>1294.104287221035</v>
       </c>
       <c r="W43" t="n">
-        <v>498.5999589702495</v>
+        <v>1294.104287221035</v>
       </c>
       <c r="X43" t="n">
-        <v>270.6104080722321</v>
+        <v>1066.114736323018</v>
       </c>
       <c r="Y43" t="n">
-        <v>49.81782892870201</v>
+        <v>845.3221571794878</v>
       </c>
     </row>
     <row r="44">
@@ -7624,34 +7624,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2237.305650629178</v>
+        <v>1340.686516134087</v>
       </c>
       <c r="C44" t="n">
-        <v>1868.343133688766</v>
+        <v>1340.686516134087</v>
       </c>
       <c r="D44" t="n">
-        <v>1510.077435082016</v>
+        <v>982.4208175273363</v>
       </c>
       <c r="E44" t="n">
-        <v>1124.289182483771</v>
+        <v>596.632564929092</v>
       </c>
       <c r="F44" t="n">
-        <v>713.3032776941639</v>
+        <v>185.6466601394845</v>
       </c>
       <c r="G44" t="n">
-        <v>354.4831358895594</v>
+        <v>49.817828928702</v>
       </c>
       <c r="H44" t="n">
-        <v>49.81782892870199</v>
+        <v>49.817828928702</v>
       </c>
       <c r="I44" t="n">
-        <v>49.81782892870199</v>
+        <v>49.817828928702</v>
       </c>
       <c r="J44" t="n">
-        <v>181.1756535819834</v>
+        <v>181.1756535819835</v>
       </c>
       <c r="K44" t="n">
-        <v>428.7854999799487</v>
+        <v>428.785499979949</v>
       </c>
       <c r="L44" t="n">
         <v>772.8691714549154</v>
@@ -7660,40 +7660,40 @@
         <v>1187.397991240659</v>
       </c>
       <c r="N44" t="n">
-        <v>1613.248129085907</v>
+        <v>1613.248129085908</v>
       </c>
       <c r="O44" t="n">
         <v>2002.031077317524</v>
       </c>
       <c r="P44" t="n">
-        <v>2299.347327962849</v>
+        <v>2299.34732796285</v>
       </c>
       <c r="Q44" t="n">
-        <v>2474.446703561746</v>
+        <v>2474.446703561747</v>
       </c>
       <c r="R44" t="n">
-        <v>2490.891446435099</v>
+        <v>2490.8914464351</v>
       </c>
       <c r="S44" t="n">
-        <v>2490.891446435099</v>
+        <v>2490.8914464351</v>
       </c>
       <c r="T44" t="n">
-        <v>2490.891446435099</v>
+        <v>2490.8914464351</v>
       </c>
       <c r="U44" t="n">
-        <v>2237.305650629178</v>
+        <v>2490.8914464351</v>
       </c>
       <c r="V44" t="n">
-        <v>2237.305650629178</v>
+        <v>2490.8914464351</v>
       </c>
       <c r="W44" t="n">
-        <v>2237.305650629178</v>
+        <v>2490.8914464351</v>
       </c>
       <c r="X44" t="n">
-        <v>2237.305650629178</v>
+        <v>2117.42568817402</v>
       </c>
       <c r="Y44" t="n">
-        <v>2237.305650629178</v>
+        <v>1727.286356198209</v>
       </c>
     </row>
     <row r="45">
@@ -7712,49 +7712,49 @@
         <v>607.9156082542706</v>
       </c>
       <c r="E45" t="n">
-        <v>448.6781532488152</v>
+        <v>448.6781532488151</v>
       </c>
       <c r="F45" t="n">
-        <v>302.1435952757001</v>
+        <v>302.1435952757</v>
       </c>
       <c r="G45" t="n">
         <v>165.4105161450557</v>
       </c>
       <c r="H45" t="n">
-        <v>71.33540390088821</v>
+        <v>71.3354039008882</v>
       </c>
       <c r="I45" t="n">
-        <v>49.81782892870199</v>
+        <v>49.817828928702</v>
       </c>
       <c r="J45" t="n">
-        <v>234.0659274310207</v>
+        <v>234.0659274310208</v>
       </c>
       <c r="K45" t="n">
-        <v>675.596117491649</v>
+        <v>560.6342506504918</v>
       </c>
       <c r="L45" t="n">
-        <v>963.5604006743116</v>
+        <v>848.5985338331545</v>
       </c>
       <c r="M45" t="n">
-        <v>1318.958004922983</v>
+        <v>1203.996138081826</v>
       </c>
       <c r="N45" t="n">
-        <v>1698.170571153288</v>
+        <v>1583.208704312131</v>
       </c>
       <c r="O45" t="n">
-        <v>2022.856188867045</v>
+        <v>1907.894322025888</v>
       </c>
       <c r="P45" t="n">
-        <v>2264.111955628754</v>
+        <v>2149.150088787598</v>
       </c>
       <c r="Q45" t="n">
-        <v>2468.48049822852</v>
+        <v>2468.480498228521</v>
       </c>
       <c r="R45" t="n">
-        <v>2490.891446435099</v>
+        <v>2490.8914464351</v>
       </c>
       <c r="S45" t="n">
-        <v>2426.746110912452</v>
+        <v>2354.581362957455</v>
       </c>
       <c r="T45" t="n">
         <v>2232.611835734</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1316.656577686647</v>
+        <v>386.7670264162903</v>
       </c>
       <c r="C46" t="n">
-        <v>1147.72039475874</v>
+        <v>217.8308434883834</v>
       </c>
       <c r="D46" t="n">
-        <v>1147.72039475874</v>
+        <v>217.8308434883834</v>
       </c>
       <c r="E46" t="n">
-        <v>1099.501921718556</v>
+        <v>217.8308434883834</v>
       </c>
       <c r="F46" t="n">
-        <v>1099.501921718556</v>
+        <v>217.8308434883834</v>
       </c>
       <c r="G46" t="n">
-        <v>931.4889071588748</v>
+        <v>49.817828928702</v>
       </c>
       <c r="H46" t="n">
-        <v>931.4889071588748</v>
+        <v>49.817828928702</v>
       </c>
       <c r="I46" t="n">
-        <v>931.4889071588748</v>
+        <v>49.817828928702</v>
       </c>
       <c r="J46" t="n">
-        <v>955.1183582849491</v>
+        <v>73.44728005477637</v>
       </c>
       <c r="K46" t="n">
-        <v>1123.785641879241</v>
+        <v>242.1145636490679</v>
       </c>
       <c r="L46" t="n">
-        <v>1395.148129369608</v>
+        <v>513.4770511394357</v>
       </c>
       <c r="M46" t="n">
-        <v>1691.650947694423</v>
+        <v>809.9798694642503</v>
       </c>
       <c r="N46" t="n">
-        <v>1986.538208137711</v>
+        <v>1104.867129907539</v>
       </c>
       <c r="O46" t="n">
-        <v>2242.898026528775</v>
+        <v>1361.226948298603</v>
       </c>
       <c r="P46" t="n">
-        <v>2438.737456460603</v>
+        <v>1557.066378230431</v>
       </c>
       <c r="Q46" t="n">
-        <v>2490.891446435099</v>
+        <v>1609.220368204927</v>
       </c>
       <c r="R46" t="n">
-        <v>2490.891446435099</v>
+        <v>1505.443183112052</v>
       </c>
       <c r="S46" t="n">
-        <v>2490.891446435099</v>
+        <v>1443.080391480101</v>
       </c>
       <c r="T46" t="n">
-        <v>2490.891446435099</v>
+        <v>1219.988470329916</v>
       </c>
       <c r="U46" t="n">
-        <v>2201.771660764321</v>
+        <v>930.8686846591378</v>
       </c>
       <c r="V46" t="n">
-        <v>1947.087172558434</v>
+        <v>676.1841964532509</v>
       </c>
       <c r="W46" t="n">
-        <v>1947.087172558434</v>
+        <v>386.7670264162903</v>
       </c>
       <c r="X46" t="n">
-        <v>1719.097621660417</v>
+        <v>386.7670264162903</v>
       </c>
       <c r="Y46" t="n">
-        <v>1498.305042516887</v>
+        <v>386.7670264162903</v>
       </c>
     </row>
   </sheetData>
@@ -8777,7 +8777,7 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>188.6850150503356</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8786,13 +8786,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>274.433174533638</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>45.52166981132082</v>
+        <v>22.8843483905338</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9008,16 +9008,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>148.3421391932281</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>263.7353825697128</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>117.3213657801517</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -9026,10 +9026,10 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>22.88434839053377</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9245,7 +9245,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>170.9794606140161</v>
+        <v>148.3421391932282</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9266,7 +9266,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>22.88434839053376</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9485,7 +9485,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>93.95418991649962</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>116.5915113372867</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>22.88434839053376</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9649,7 +9649,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>7.177264930044544</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -9658,7 +9658,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>7.177264930046164</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9716,7 +9716,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>82.86162232408719</v>
+        <v>105.4989437448729</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9740,7 +9740,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>22.88434839053376</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9874,10 +9874,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>72.89368480302758</v>
       </c>
       <c r="K26" t="n">
-        <v>72.89368480302875</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -9953,13 +9953,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>243.8731454170432</v>
       </c>
       <c r="L27" t="n">
-        <v>350.2592227712701</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>207.144924301245</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>22.88434839053376</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>72.8936848030271</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10129,7 +10129,7 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>72.89368480302829</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -10190,19 +10190,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>17.17015012962227</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>243.8731454170427</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>282.1447570480285</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>258.0892398948637</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -10211,10 +10211,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>22.88434839053376</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10357,7 +10357,7 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>7.177264930045851</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -10369,10 +10369,10 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>72.89368480302721</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10427,10 +10427,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>221.2358239962556</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>315.5762314807231</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>22.88434839053379</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>8.526512829121202e-13</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -10664,13 +10664,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>148.3421391932291</v>
       </c>
       <c r="L36" t="n">
-        <v>331.8498482929543</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10682,10 +10682,10 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>152.6606139765326</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10901,28 +10901,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>9.967937521059326</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>189.752871078648</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>294.7575911908387</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11138,10 +11138,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>9.967937521059255</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>148.3421391932278</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11378,7 +11378,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>148.3421391932278</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11396,7 +11396,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>93.95418991649839</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23257,25 +23257,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>292.0403225870293</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>301.6186538912489</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23308,25 +23308,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>124.7874829717001</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>206.9146911261644</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0499378478622</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>235.0902732473407</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23354,7 +23354,7 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>71.44310047544869</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -23396,7 +23396,7 @@
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>71.4431004754473</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>2.03485469696281</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>126.0675988338141</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.3328844140846</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>147.485201092913</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>105.5870378728063</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23472,13 +23472,13 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2285878140705</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23494,28 +23494,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>411.6062992654567</v>
+        <v>50.60439694854108</v>
       </c>
       <c r="H14" t="n">
-        <v>283.4039926911921</v>
+        <v>301.6186538912489</v>
       </c>
       <c r="I14" t="n">
-        <v>67.96895394968161</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>124.7874829717001</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23554,13 +23554,13 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23573,7 +23573,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>71.44310047544728</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -23591,10 +23591,10 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>50.14070125298387</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>21.30239922246435</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23652,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23664,13 +23664,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>166.3328844140846</v>
       </c>
       <c r="H16" t="n">
-        <v>147.485201092913</v>
+        <v>141.926767926119</v>
       </c>
       <c r="I16" t="n">
         <v>105.5870378728063</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>102.739413241946</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>195.1205252336517</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>25.51131139434432</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23731,28 +23731,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>256.0272166441962</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>0.3079974153003491</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>411.6062992654567</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>301.6186538912489</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>67.96895394968158</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23788,19 +23788,19 @@
         <v>206.9146911261644</v>
       </c>
       <c r="U17" t="n">
-        <v>251.0499378478622</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23828,7 +23828,7 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>71.44310047544732</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -23879,7 +23879,7 @@
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>71.44310047544639</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>53.37268695042933</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>57.2794735187513</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>147.485201092913</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>105.5870378728063</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,25 +23940,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>195.1205252336517</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2285878140705</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23968,28 +23968,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>236.9086690134248</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>411.6062992654567</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>301.6186538912489</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>67.96895394968158</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,22 +24019,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>124.7874829717001</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>206.9146911261644</v>
       </c>
       <c r="U20" t="n">
-        <v>2.209822650535301</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24098,7 +24098,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>71.44310047544636</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -24113,7 +24113,7 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>71.44310047544633</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -24126,16 +24126,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>81.27467346343461</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24177,13 +24177,13 @@
         <v>102.739413241946</v>
       </c>
       <c r="S22" t="n">
-        <v>195.1205252336517</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>220.8610019386828</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2285878140705</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>141.3565515044931</v>
       </c>
     </row>
     <row r="23">
@@ -24205,28 +24205,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>66.16834621834528</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>411.6062992654567</v>
       </c>
       <c r="H23" t="n">
-        <v>228.8748191297465</v>
+        <v>301.6186538912489</v>
       </c>
       <c r="I23" t="n">
-        <v>67.96895394968163</v>
+        <v>67.96895394968158</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24259,19 +24259,19 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>206.9146911261644</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>251.0499378478622</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24372,13 +24372,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.3328844140846</v>
+        <v>89.10478256648268</v>
       </c>
       <c r="H25" t="n">
         <v>147.485201092913</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>102.739413241946</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>171.9452740409137</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24445,25 +24445,25 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>32.83338145860029</v>
       </c>
       <c r="G26" t="n">
-        <v>411.6062992654567</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>301.6186538912489</v>
       </c>
       <c r="I26" t="n">
-        <v>67.96895394968163</v>
+        <v>67.96895394968158</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24499,16 +24499,16 @@
         <v>206.9146911261644</v>
       </c>
       <c r="U26" t="n">
-        <v>251.0499378478622</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>159.3592483968845</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>98.68245834101707</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>105.5870378728063</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,25 +24651,25 @@
         <v>102.739413241946</v>
       </c>
       <c r="S28" t="n">
-        <v>195.1205252336517</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>220.8610019386828</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2285878140705</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>107.4402032057513</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24682,25 +24682,25 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>57.92430539681578</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>216.282506041659</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>301.6186538912489</v>
       </c>
       <c r="I29" t="n">
-        <v>67.96895394968163</v>
+        <v>67.96895394968158</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24733,7 +24733,7 @@
         <v>124.7874829717001</v>
       </c>
       <c r="T29" t="n">
-        <v>206.9146911261644</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>251.0499378478622</v>
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>109.7165517923394</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>69.20586079896727</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.3328844140846</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>147.485201092913</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>105.5870378728063</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,19 +24888,19 @@
         <v>102.739413241946</v>
       </c>
       <c r="S31" t="n">
-        <v>195.1205252336517</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2285878140705</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -24925,7 +24925,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -24934,10 +24934,10 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>64.95728361370595</v>
+        <v>301.6186538912489</v>
       </c>
       <c r="I32" t="n">
-        <v>67.96895394968163</v>
+        <v>67.96895394968158</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,25 +24967,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>124.7874829717001</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>206.9146911261644</v>
       </c>
       <c r="U32" t="n">
-        <v>251.0499378478622</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>189.8500651515731</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>71.38737117061045</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.3328844140846</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>147.485201092913</v>
       </c>
       <c r="I34" t="n">
-        <v>18.0229510303936</v>
+        <v>105.5870378728063</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,25 +25122,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>102.739413241946</v>
       </c>
       <c r="S34" t="n">
-        <v>195.1205252336517</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>220.8610019386828</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2285878140705</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25156,25 +25156,25 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>230.8023488723325</v>
+        <v>271.0428071140812</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>411.6062992654567</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>301.6186538912489</v>
       </c>
       <c r="I35" t="n">
-        <v>67.96895394968163</v>
+        <v>67.96895394968158</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,13 +25204,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>124.7874829717001</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>206.9146911261644</v>
       </c>
       <c r="U35" t="n">
-        <v>251.0499378478622</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -25247,13 +25247,13 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>50.14070125298299</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>21.30239922246435</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25286,7 +25286,7 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>71.44310047544637</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>102.6038783343356</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.3328844140846</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>147.485201092913</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>105.5870378728063</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,25 +25359,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>102.739413241946</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>220.8610019386828</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2285878140705</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>19.46866723062661</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25393,25 +25393,25 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>411.6062992654567</v>
       </c>
       <c r="H38" t="n">
         <v>301.6186538912489</v>
       </c>
       <c r="I38" t="n">
-        <v>67.96895394968163</v>
+        <v>67.96895394968158</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,25 +25441,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>124.7874829717001</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>206.9146911261644</v>
       </c>
       <c r="U38" t="n">
-        <v>251.0499378478622</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>271.693683463512</v>
+        <v>162.7667540115418</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25523,7 +25523,7 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>71.44310047544727</v>
+        <v>71.44310047544637</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -25551,25 +25551,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>107.4402032057514</v>
+        <v>72.4538256127238</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.3328844140846</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>147.485201092913</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>105.5870378728063</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25605,13 +25605,13 @@
         <v>220.8610019386828</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2285878140705</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25627,28 +25627,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>370.0390980937694</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>411.6062992654567</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>301.6186538912489</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>67.96895394968163</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>124.7874829717001</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>206.9146911261644</v>
@@ -25687,16 +25687,16 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>182.0258855179055</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25724,10 +25724,10 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>50.14070125298299</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>21.30239922246435</v>
+        <v>21.30239922246433</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25772,7 +25772,7 @@
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>50.1407012529834</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -25785,19 +25785,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>166.3328844140846</v>
@@ -25836,19 +25836,19 @@
         <v>102.739413241946</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>195.1205252336517</v>
       </c>
       <c r="T43" t="n">
-        <v>141.3565515044936</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2285878140705</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>161.0337250884578</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -25864,10 +25864,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -25879,13 +25879,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>56.37435887889836</v>
+        <v>277.1357563667821</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>301.6186538912489</v>
       </c>
       <c r="I44" t="n">
-        <v>67.96895394968163</v>
+        <v>67.96895394968158</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25921,7 +25921,7 @@
         <v>206.9146911261644</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.0499378478622</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -25930,10 +25930,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -25994,10 +25994,10 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>71.44310047544863</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>71.44310047544772</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26031,7 +26031,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>98.69767433678692</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>102.739413241946</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>195.1205252336517</v>
+        <v>133.3813615180195</v>
       </c>
       <c r="T46" t="n">
-        <v>220.8610019386828</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26085,13 +26085,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>721959.3082167018</v>
+        <v>721959.3082167015</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>721959.3082167018</v>
+        <v>721959.3082167016</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>721959.308216702</v>
+        <v>721959.3082167018</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>721959.3082167018</v>
+        <v>721959.308216702</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>734868.5855336479</v>
+        <v>734868.585533648</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>734868.5855336478</v>
+        <v>734868.585533648</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>721959.308216702</v>
+        <v>721959.3082167018</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>721959.3082167015</v>
+        <v>721959.3082167017</v>
       </c>
     </row>
   </sheetData>
@@ -26313,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>471083.8947622971</v>
+        <v>471083.894762297</v>
       </c>
       <c r="C2" t="n">
-        <v>471083.8947622971</v>
+        <v>471083.894762297</v>
       </c>
       <c r="D2" t="n">
         <v>471083.894762297</v>
       </c>
       <c r="E2" t="n">
-        <v>346355.1269253913</v>
+        <v>346355.1269253911</v>
       </c>
       <c r="F2" t="n">
         <v>346355.1269253915</v>
       </c>
       <c r="G2" t="n">
+        <v>346355.1269253914</v>
+      </c>
+      <c r="H2" t="n">
         <v>346355.1269253915</v>
-      </c>
-      <c r="H2" t="n">
-        <v>346355.1269253914</v>
       </c>
       <c r="I2" t="n">
         <v>351366.860423744</v>
@@ -26346,7 +26346,7 @@
         <v>351366.860423744</v>
       </c>
       <c r="M2" t="n">
-        <v>346355.1269253913</v>
+        <v>346355.1269253915</v>
       </c>
       <c r="N2" t="n">
         <v>346355.1269253914</v>
@@ -26355,7 +26355,7 @@
         <v>346355.1269253914</v>
       </c>
       <c r="P2" t="n">
-        <v>346355.1269253911</v>
+        <v>346355.1269253913</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>924651.5793761241</v>
+        <v>924651.579376124</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>4895.439270648136</v>
+        <v>4895.439270648106</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>150597.3382468586</v>
+        <v>150597.3382468591</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,37 +26426,37 @@
         <v>409397.0283363865</v>
       </c>
       <c r="E4" t="n">
-        <v>14698.07011042801</v>
+        <v>14698.07011042799</v>
       </c>
       <c r="F4" t="n">
-        <v>14698.070110428</v>
+        <v>14698.07011042799</v>
       </c>
       <c r="G4" t="n">
-        <v>14698.07011042801</v>
+        <v>14698.07011042799</v>
       </c>
       <c r="H4" t="n">
         <v>14698.07011042801</v>
       </c>
       <c r="I4" t="n">
-        <v>17379.3185185378</v>
+        <v>17379.31851853774</v>
       </c>
       <c r="J4" t="n">
-        <v>17379.3185185378</v>
+        <v>17379.31851853776</v>
       </c>
       <c r="K4" t="n">
-        <v>17379.31851853778</v>
+        <v>17379.31851853774</v>
       </c>
       <c r="L4" t="n">
-        <v>17379.31851853779</v>
+        <v>17379.31851853774</v>
       </c>
       <c r="M4" t="n">
-        <v>14698.07011042802</v>
+        <v>14698.07011042801</v>
       </c>
       <c r="N4" t="n">
-        <v>14698.070110428</v>
+        <v>14698.07011042801</v>
       </c>
       <c r="O4" t="n">
-        <v>14698.07011042801</v>
+        <v>14698.07011042799</v>
       </c>
       <c r="P4" t="n">
         <v>14698.07011042799</v>
@@ -26478,13 +26478,13 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>57906.41050425675</v>
+        <v>57906.41050425673</v>
       </c>
       <c r="F5" t="n">
+        <v>57906.41050425674</v>
+      </c>
+      <c r="G5" t="n">
         <v>57906.41050425676</v>
-      </c>
-      <c r="G5" t="n">
-        <v>57906.41050425677</v>
       </c>
       <c r="H5" t="n">
         <v>57906.41050425677</v>
@@ -26493,7 +26493,7 @@
         <v>59025.70047253834</v>
       </c>
       <c r="J5" t="n">
-        <v>59025.70047253834</v>
+        <v>59025.70047253835</v>
       </c>
       <c r="K5" t="n">
         <v>59025.70047253834</v>
@@ -26502,16 +26502,16 @@
         <v>59025.70047253834</v>
       </c>
       <c r="M5" t="n">
-        <v>57906.41050425675</v>
+        <v>57906.41050425677</v>
       </c>
       <c r="N5" t="n">
-        <v>57906.41050425675</v>
+        <v>57906.41050425677</v>
       </c>
       <c r="O5" t="n">
         <v>57906.41050425675</v>
       </c>
       <c r="P5" t="n">
-        <v>57906.41050425673</v>
+        <v>57906.41050425675</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>28059.26642591056</v>
+        <v>28015.13064722938</v>
       </c>
       <c r="C6" t="n">
-        <v>28059.26642591056</v>
+        <v>28015.13064722938</v>
       </c>
       <c r="D6" t="n">
-        <v>28059.2664259105</v>
+        <v>28015.13064722932</v>
       </c>
       <c r="E6" t="n">
-        <v>-650900.9330654176</v>
+        <v>-656368.0587500511</v>
       </c>
       <c r="F6" t="n">
-        <v>273750.6463107067</v>
+        <v>268283.5206260732</v>
       </c>
       <c r="G6" t="n">
-        <v>273750.6463107067</v>
+        <v>268283.5206260731</v>
       </c>
       <c r="H6" t="n">
-        <v>273750.6463107066</v>
+        <v>268283.5206260731</v>
       </c>
       <c r="I6" t="n">
-        <v>270066.4021620197</v>
+        <v>264817.1779338364</v>
       </c>
       <c r="J6" t="n">
-        <v>274961.8414326678</v>
+        <v>269712.6172044844</v>
       </c>
       <c r="K6" t="n">
-        <v>274961.8414326678</v>
+        <v>269712.6172044844</v>
       </c>
       <c r="L6" t="n">
-        <v>274961.8414326678</v>
+        <v>269712.6172044845</v>
       </c>
       <c r="M6" t="n">
-        <v>123153.3080638479</v>
+        <v>117686.1823792141</v>
       </c>
       <c r="N6" t="n">
-        <v>273750.6463107066</v>
+        <v>268283.520626073</v>
       </c>
       <c r="O6" t="n">
-        <v>273750.6463107066</v>
+        <v>268283.5206260732</v>
       </c>
       <c r="P6" t="n">
-        <v>273750.6463107064</v>
+        <v>268283.5206260731</v>
       </c>
     </row>
   </sheetData>
@@ -26746,10 +26746,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
+        <v>919.4890146074873</v>
+      </c>
+      <c r="F3" t="n">
         <v>919.4890146074874</v>
-      </c>
-      <c r="F3" t="n">
-        <v>919.4890146074875</v>
       </c>
       <c r="G3" t="n">
         <v>919.4890146074877</v>
@@ -26758,28 +26758,28 @@
         <v>919.4890146074877</v>
       </c>
       <c r="I3" t="n">
-        <v>919.4890146074874</v>
+        <v>919.4890146074877</v>
       </c>
       <c r="J3" t="n">
-        <v>919.4890146074874</v>
+        <v>919.4890146074877</v>
       </c>
       <c r="K3" t="n">
-        <v>919.4890146074874</v>
+        <v>919.4890146074877</v>
       </c>
       <c r="L3" t="n">
-        <v>919.4890146074874</v>
+        <v>919.4890146074877</v>
       </c>
       <c r="M3" t="n">
-        <v>919.4890146074874</v>
+        <v>919.4890146074877</v>
       </c>
       <c r="N3" t="n">
-        <v>919.4890146074874</v>
+        <v>919.4890146074877</v>
       </c>
       <c r="O3" t="n">
-        <v>919.4890146074874</v>
+        <v>919.4890146074877</v>
       </c>
       <c r="P3" t="n">
-        <v>919.4890146074873</v>
+        <v>919.4890146074877</v>
       </c>
     </row>
     <row r="4">
@@ -26798,19 +26798,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
+        <v>622.7228616087748</v>
+      </c>
+      <c r="F4" t="n">
+        <v>622.7228616087749</v>
+      </c>
+      <c r="G4" t="n">
         <v>622.7228616087751</v>
-      </c>
-      <c r="F4" t="n">
-        <v>622.7228616087751</v>
-      </c>
-      <c r="G4" t="n">
-        <v>622.7228616087754</v>
       </c>
       <c r="H4" t="n">
         <v>622.7228616087754</v>
       </c>
       <c r="I4" t="n">
-        <v>641.1322360870909</v>
+        <v>641.1322360870907</v>
       </c>
       <c r="J4" t="n">
         <v>641.1322360870909</v>
@@ -26822,16 +26822,16 @@
         <v>641.1322360870907</v>
       </c>
       <c r="M4" t="n">
-        <v>622.7228616087751</v>
+        <v>622.7228616087754</v>
       </c>
       <c r="N4" t="n">
-        <v>622.7228616087751</v>
+        <v>622.7228616087754</v>
       </c>
       <c r="O4" t="n">
-        <v>622.7228616087751</v>
+        <v>622.722861608775</v>
       </c>
       <c r="P4" t="n">
-        <v>622.7228616087748</v>
+        <v>622.722861608775</v>
       </c>
     </row>
   </sheetData>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>919.4890146074874</v>
+        <v>919.4890146074873</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>622.722861608775</v>
+        <v>622.7228616087748</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>18.4093744783155</v>
+        <v>18.40937447831539</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>604.3134871304577</v>
+        <v>604.3134871304596</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>622.722861608775</v>
+        <v>622.7228616087748</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.696438249678339</v>
+        <v>3.696438249678338</v>
       </c>
       <c r="H11" t="n">
         <v>37.85614822451829</v>
@@ -31761,40 +31761,40 @@
         <v>142.5069356207243</v>
       </c>
       <c r="J11" t="n">
-        <v>313.7305758936372</v>
+        <v>313.7305758936371</v>
       </c>
       <c r="K11" t="n">
         <v>470.2008070025213</v>
       </c>
       <c r="L11" t="n">
-        <v>583.325679086115</v>
+        <v>583.3256790861149</v>
       </c>
       <c r="M11" t="n">
-        <v>649.0622128088321</v>
+        <v>649.062212808832</v>
       </c>
       <c r="N11" t="n">
-        <v>659.5647179857307</v>
+        <v>659.5647179857306</v>
       </c>
       <c r="O11" t="n">
-        <v>622.8082601404917</v>
+        <v>622.8082601404916</v>
       </c>
       <c r="P11" t="n">
         <v>531.5524408515575</v>
       </c>
       <c r="Q11" t="n">
-        <v>399.173746034952</v>
+        <v>399.1737460349519</v>
       </c>
       <c r="R11" t="n">
         <v>232.1963892013571</v>
       </c>
       <c r="S11" t="n">
-        <v>84.23258661454523</v>
+        <v>84.23258661454521</v>
       </c>
       <c r="T11" t="n">
-        <v>16.18115843796694</v>
+        <v>16.18115843796693</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2957150599742671</v>
+        <v>0.295715059974267</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31834,10 +31834,10 @@
         <v>1.977768823872709</v>
       </c>
       <c r="H12" t="n">
-        <v>19.10108311477064</v>
+        <v>19.10108311477063</v>
       </c>
       <c r="I12" t="n">
-        <v>68.09423362895073</v>
+        <v>68.09423362895072</v>
       </c>
       <c r="J12" t="n">
         <v>186.8557817326405</v>
@@ -31849,13 +31849,13 @@
         <v>429.427393095695</v>
       </c>
       <c r="M12" t="n">
-        <v>501.1215129610806</v>
+        <v>501.1215129610805</v>
       </c>
       <c r="N12" t="n">
         <v>514.3847082755603</v>
       </c>
       <c r="O12" t="n">
-        <v>470.5615148623809</v>
+        <v>470.5615148623808</v>
       </c>
       <c r="P12" t="n">
         <v>377.6671011130263</v>
@@ -31870,7 +31870,7 @@
         <v>36.73618846096893</v>
       </c>
       <c r="T12" t="n">
-        <v>7.971796268153591</v>
+        <v>7.97179626815359</v>
       </c>
       <c r="U12" t="n">
         <v>0.1301163699916256</v>
@@ -31916,7 +31916,7 @@
         <v>14.74197141452661</v>
       </c>
       <c r="I13" t="n">
-        <v>49.86343705445195</v>
+        <v>49.86343705445194</v>
       </c>
       <c r="J13" t="n">
         <v>117.2273125672529</v>
@@ -31925,7 +31925,7 @@
         <v>192.6404853554702</v>
       </c>
       <c r="L13" t="n">
-        <v>246.5134974572271</v>
+        <v>246.513497457227</v>
       </c>
       <c r="M13" t="n">
         <v>259.9139193258508</v>
@@ -31937,7 +31937,7 @@
         <v>234.3641835920855</v>
       </c>
       <c r="P13" t="n">
-        <v>200.5390467268526</v>
+        <v>200.5390467268525</v>
       </c>
       <c r="Q13" t="n">
         <v>138.8428412057306</v>
@@ -31946,13 +31946,13 @@
         <v>74.55397813522346</v>
       </c>
       <c r="S13" t="n">
-        <v>28.89607280332054</v>
+        <v>28.89607280332053</v>
       </c>
       <c r="T13" t="n">
-        <v>7.084587489598671</v>
+        <v>7.08458748959867</v>
       </c>
       <c r="U13" t="n">
-        <v>0.09044154242040869</v>
+        <v>0.09044154242040868</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31992,7 +31992,7 @@
         <v>3.696438249678339</v>
       </c>
       <c r="H14" t="n">
-        <v>37.8561482245183</v>
+        <v>37.85614822451829</v>
       </c>
       <c r="I14" t="n">
         <v>142.5069356207243</v>
@@ -32001,7 +32001,7 @@
         <v>313.7305758936372</v>
       </c>
       <c r="K14" t="n">
-        <v>470.2008070025214</v>
+        <v>470.2008070025213</v>
       </c>
       <c r="L14" t="n">
         <v>583.325679086115</v>
@@ -32010,22 +32010,22 @@
         <v>649.0622128088321</v>
       </c>
       <c r="N14" t="n">
-        <v>659.5647179857308</v>
+        <v>659.5647179857307</v>
       </c>
       <c r="O14" t="n">
         <v>622.8082601404917</v>
       </c>
       <c r="P14" t="n">
-        <v>531.5524408515577</v>
+        <v>531.5524408515575</v>
       </c>
       <c r="Q14" t="n">
         <v>399.173746034952</v>
       </c>
       <c r="R14" t="n">
-        <v>232.1963892013572</v>
+        <v>232.1963892013571</v>
       </c>
       <c r="S14" t="n">
-        <v>84.23258661454524</v>
+        <v>84.23258661454523</v>
       </c>
       <c r="T14" t="n">
         <v>16.18115843796694</v>
@@ -32080,22 +32080,22 @@
         <v>186.8557817326405</v>
       </c>
       <c r="K15" t="n">
-        <v>319.366292932112</v>
+        <v>319.3662929321119</v>
       </c>
       <c r="L15" t="n">
         <v>429.427393095695</v>
       </c>
       <c r="M15" t="n">
-        <v>501.1215129610807</v>
+        <v>501.1215129610806</v>
       </c>
       <c r="N15" t="n">
-        <v>514.3847082755605</v>
+        <v>514.3847082755603</v>
       </c>
       <c r="O15" t="n">
         <v>470.5615148623809</v>
       </c>
       <c r="P15" t="n">
-        <v>377.6671011130264</v>
+        <v>377.6671011130263</v>
       </c>
       <c r="Q15" t="n">
         <v>252.4604554824181</v>
@@ -32104,13 +32104,13 @@
         <v>122.7951555734302</v>
       </c>
       <c r="S15" t="n">
-        <v>36.73618846096894</v>
+        <v>36.73618846096893</v>
       </c>
       <c r="T15" t="n">
-        <v>7.971796268153592</v>
+        <v>7.971796268153591</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1301163699916257</v>
+        <v>0.1301163699916256</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,31 +32147,31 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.658094944374158</v>
+        <v>1.658094944374157</v>
       </c>
       <c r="H16" t="n">
         <v>14.74197141452661</v>
       </c>
       <c r="I16" t="n">
-        <v>49.86343705445196</v>
+        <v>49.86343705445195</v>
       </c>
       <c r="J16" t="n">
         <v>117.2273125672529</v>
       </c>
       <c r="K16" t="n">
-        <v>192.6404853554703</v>
+        <v>192.6404853554702</v>
       </c>
       <c r="L16" t="n">
         <v>246.5134974572271</v>
       </c>
       <c r="M16" t="n">
-        <v>259.9139193258509</v>
+        <v>259.9139193258508</v>
       </c>
       <c r="N16" t="n">
         <v>253.7337472604565</v>
       </c>
       <c r="O16" t="n">
-        <v>234.3641835920856</v>
+        <v>234.3641835920855</v>
       </c>
       <c r="P16" t="n">
         <v>200.5390467268526</v>
@@ -32180,16 +32180,16 @@
         <v>138.8428412057306</v>
       </c>
       <c r="R16" t="n">
-        <v>74.55397813522347</v>
+        <v>74.55397813522346</v>
       </c>
       <c r="S16" t="n">
         <v>28.89607280332054</v>
       </c>
       <c r="T16" t="n">
-        <v>7.084587489598672</v>
+        <v>7.084587489598671</v>
       </c>
       <c r="U16" t="n">
-        <v>0.09044154242040871</v>
+        <v>0.09044154242040869</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32703,40 +32703,40 @@
         <v>3.696438249678339</v>
       </c>
       <c r="H23" t="n">
-        <v>37.85614822451829</v>
+        <v>37.85614822451831</v>
       </c>
       <c r="I23" t="n">
         <v>142.5069356207243</v>
       </c>
       <c r="J23" t="n">
-        <v>313.7305758936372</v>
+        <v>313.7305758936373</v>
       </c>
       <c r="K23" t="n">
-        <v>470.2008070025213</v>
+        <v>470.2008070025215</v>
       </c>
       <c r="L23" t="n">
-        <v>583.325679086115</v>
+        <v>583.3256790861151</v>
       </c>
       <c r="M23" t="n">
-        <v>649.0622128088321</v>
+        <v>649.0622128088322</v>
       </c>
       <c r="N23" t="n">
-        <v>659.5647179857307</v>
+        <v>659.5647179857309</v>
       </c>
       <c r="O23" t="n">
-        <v>622.8082601404917</v>
+        <v>622.8082601404918</v>
       </c>
       <c r="P23" t="n">
-        <v>531.5524408515575</v>
+        <v>531.5524408515578</v>
       </c>
       <c r="Q23" t="n">
         <v>399.173746034952</v>
       </c>
       <c r="R23" t="n">
-        <v>232.1963892013571</v>
+        <v>232.1963892013572</v>
       </c>
       <c r="S23" t="n">
-        <v>84.23258661454523</v>
+        <v>84.23258661454524</v>
       </c>
       <c r="T23" t="n">
         <v>16.18115843796694</v>
@@ -32785,43 +32785,43 @@
         <v>19.10108311477064</v>
       </c>
       <c r="I24" t="n">
-        <v>68.09423362895073</v>
+        <v>68.09423362895075</v>
       </c>
       <c r="J24" t="n">
         <v>186.8557817326405</v>
       </c>
       <c r="K24" t="n">
-        <v>319.3662929321119</v>
+        <v>319.3662929321121</v>
       </c>
       <c r="L24" t="n">
-        <v>429.427393095695</v>
+        <v>429.4273930956951</v>
       </c>
       <c r="M24" t="n">
-        <v>501.1215129610806</v>
+        <v>501.1215129610807</v>
       </c>
       <c r="N24" t="n">
-        <v>514.3847082755603</v>
+        <v>514.3847082755605</v>
       </c>
       <c r="O24" t="n">
-        <v>470.5615148623809</v>
+        <v>470.561514862381</v>
       </c>
       <c r="P24" t="n">
-        <v>377.6671011130263</v>
+        <v>377.6671011130264</v>
       </c>
       <c r="Q24" t="n">
-        <v>252.4604554824181</v>
+        <v>252.4604554824182</v>
       </c>
       <c r="R24" t="n">
         <v>122.7951555734302</v>
       </c>
       <c r="S24" t="n">
-        <v>36.73618846096893</v>
+        <v>36.73618846096894</v>
       </c>
       <c r="T24" t="n">
-        <v>7.971796268153591</v>
+        <v>7.971796268153593</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1301163699916256</v>
+        <v>0.1301163699916257</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,31 +32858,31 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.658094944374157</v>
+        <v>1.658094944374158</v>
       </c>
       <c r="H25" t="n">
-        <v>14.74197141452661</v>
+        <v>14.74197141452662</v>
       </c>
       <c r="I25" t="n">
-        <v>49.86343705445195</v>
+        <v>49.86343705445196</v>
       </c>
       <c r="J25" t="n">
-        <v>117.2273125672529</v>
+        <v>117.227312567253</v>
       </c>
       <c r="K25" t="n">
-        <v>192.6404853554702</v>
+        <v>192.6404853554703</v>
       </c>
       <c r="L25" t="n">
         <v>246.5134974572271</v>
       </c>
       <c r="M25" t="n">
-        <v>259.9139193258508</v>
+        <v>259.9139193258509</v>
       </c>
       <c r="N25" t="n">
         <v>253.7337472604565</v>
       </c>
       <c r="O25" t="n">
-        <v>234.3641835920855</v>
+        <v>234.3641835920856</v>
       </c>
       <c r="P25" t="n">
         <v>200.5390467268526</v>
@@ -32891,16 +32891,16 @@
         <v>138.8428412057306</v>
       </c>
       <c r="R25" t="n">
-        <v>74.55397813522346</v>
+        <v>74.55397813522347</v>
       </c>
       <c r="S25" t="n">
         <v>28.89607280332054</v>
       </c>
       <c r="T25" t="n">
-        <v>7.084587489598671</v>
+        <v>7.084587489598673</v>
       </c>
       <c r="U25" t="n">
-        <v>0.09044154242040869</v>
+        <v>0.09044154242040872</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32940,40 +32940,40 @@
         <v>3.696438249678339</v>
       </c>
       <c r="H26" t="n">
-        <v>37.85614822451829</v>
+        <v>37.85614822451831</v>
       </c>
       <c r="I26" t="n">
         <v>142.5069356207243</v>
       </c>
       <c r="J26" t="n">
-        <v>313.7305758936372</v>
+        <v>313.7305758936373</v>
       </c>
       <c r="K26" t="n">
-        <v>470.2008070025213</v>
+        <v>470.2008070025215</v>
       </c>
       <c r="L26" t="n">
-        <v>583.325679086115</v>
+        <v>583.3256790861151</v>
       </c>
       <c r="M26" t="n">
-        <v>649.0622128088321</v>
+        <v>649.0622128088322</v>
       </c>
       <c r="N26" t="n">
-        <v>659.5647179857307</v>
+        <v>659.5647179857309</v>
       </c>
       <c r="O26" t="n">
-        <v>622.8082601404917</v>
+        <v>622.8082601404918</v>
       </c>
       <c r="P26" t="n">
-        <v>531.5524408515575</v>
+        <v>531.5524408515578</v>
       </c>
       <c r="Q26" t="n">
         <v>399.173746034952</v>
       </c>
       <c r="R26" t="n">
-        <v>232.1963892013571</v>
+        <v>232.1963892013572</v>
       </c>
       <c r="S26" t="n">
-        <v>84.23258661454523</v>
+        <v>84.23258661454524</v>
       </c>
       <c r="T26" t="n">
         <v>16.18115843796694</v>
@@ -33022,43 +33022,43 @@
         <v>19.10108311477064</v>
       </c>
       <c r="I27" t="n">
-        <v>68.09423362895073</v>
+        <v>68.09423362895075</v>
       </c>
       <c r="J27" t="n">
         <v>186.8557817326405</v>
       </c>
       <c r="K27" t="n">
-        <v>319.3662929321119</v>
+        <v>319.3662929321121</v>
       </c>
       <c r="L27" t="n">
-        <v>429.427393095695</v>
+        <v>429.4273930956951</v>
       </c>
       <c r="M27" t="n">
-        <v>501.1215129610806</v>
+        <v>501.1215129610807</v>
       </c>
       <c r="N27" t="n">
-        <v>514.3847082755603</v>
+        <v>514.3847082755605</v>
       </c>
       <c r="O27" t="n">
-        <v>470.5615148623809</v>
+        <v>470.561514862381</v>
       </c>
       <c r="P27" t="n">
-        <v>377.6671011130263</v>
+        <v>377.6671011130264</v>
       </c>
       <c r="Q27" t="n">
-        <v>252.4604554824181</v>
+        <v>252.4604554824182</v>
       </c>
       <c r="R27" t="n">
         <v>122.7951555734302</v>
       </c>
       <c r="S27" t="n">
-        <v>36.73618846096893</v>
+        <v>36.73618846096894</v>
       </c>
       <c r="T27" t="n">
-        <v>7.971796268153591</v>
+        <v>7.971796268153593</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1301163699916256</v>
+        <v>0.1301163699916257</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,31 +33095,31 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.658094944374157</v>
+        <v>1.658094944374158</v>
       </c>
       <c r="H28" t="n">
-        <v>14.74197141452661</v>
+        <v>14.74197141452662</v>
       </c>
       <c r="I28" t="n">
-        <v>49.86343705445195</v>
+        <v>49.86343705445196</v>
       </c>
       <c r="J28" t="n">
-        <v>117.2273125672529</v>
+        <v>117.227312567253</v>
       </c>
       <c r="K28" t="n">
-        <v>192.6404853554702</v>
+        <v>192.6404853554703</v>
       </c>
       <c r="L28" t="n">
         <v>246.5134974572271</v>
       </c>
       <c r="M28" t="n">
-        <v>259.9139193258508</v>
+        <v>259.9139193258509</v>
       </c>
       <c r="N28" t="n">
         <v>253.7337472604565</v>
       </c>
       <c r="O28" t="n">
-        <v>234.3641835920855</v>
+        <v>234.3641835920856</v>
       </c>
       <c r="P28" t="n">
         <v>200.5390467268526</v>
@@ -33128,16 +33128,16 @@
         <v>138.8428412057306</v>
       </c>
       <c r="R28" t="n">
-        <v>74.55397813522346</v>
+        <v>74.55397813522347</v>
       </c>
       <c r="S28" t="n">
         <v>28.89607280332054</v>
       </c>
       <c r="T28" t="n">
-        <v>7.084587489598671</v>
+        <v>7.084587489598673</v>
       </c>
       <c r="U28" t="n">
-        <v>0.09044154242040869</v>
+        <v>0.09044154242040872</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33177,40 +33177,40 @@
         <v>3.696438249678339</v>
       </c>
       <c r="H29" t="n">
-        <v>37.85614822451829</v>
+        <v>37.85614822451831</v>
       </c>
       <c r="I29" t="n">
         <v>142.5069356207243</v>
       </c>
       <c r="J29" t="n">
-        <v>313.7305758936372</v>
+        <v>313.7305758936373</v>
       </c>
       <c r="K29" t="n">
-        <v>470.2008070025213</v>
+        <v>470.2008070025215</v>
       </c>
       <c r="L29" t="n">
-        <v>583.325679086115</v>
+        <v>583.3256790861151</v>
       </c>
       <c r="M29" t="n">
-        <v>649.0622128088321</v>
+        <v>649.0622128088322</v>
       </c>
       <c r="N29" t="n">
-        <v>659.5647179857307</v>
+        <v>659.5647179857309</v>
       </c>
       <c r="O29" t="n">
-        <v>622.8082601404917</v>
+        <v>622.8082601404918</v>
       </c>
       <c r="P29" t="n">
-        <v>531.5524408515575</v>
+        <v>531.5524408515578</v>
       </c>
       <c r="Q29" t="n">
         <v>399.173746034952</v>
       </c>
       <c r="R29" t="n">
-        <v>232.1963892013571</v>
+        <v>232.1963892013572</v>
       </c>
       <c r="S29" t="n">
-        <v>84.23258661454523</v>
+        <v>84.23258661454524</v>
       </c>
       <c r="T29" t="n">
         <v>16.18115843796694</v>
@@ -33259,43 +33259,43 @@
         <v>19.10108311477064</v>
       </c>
       <c r="I30" t="n">
-        <v>68.09423362895073</v>
+        <v>68.09423362895075</v>
       </c>
       <c r="J30" t="n">
         <v>186.8557817326405</v>
       </c>
       <c r="K30" t="n">
-        <v>319.3662929321119</v>
+        <v>319.3662929321121</v>
       </c>
       <c r="L30" t="n">
-        <v>429.427393095695</v>
+        <v>429.4273930956951</v>
       </c>
       <c r="M30" t="n">
-        <v>501.1215129610806</v>
+        <v>501.1215129610807</v>
       </c>
       <c r="N30" t="n">
-        <v>514.3847082755603</v>
+        <v>514.3847082755605</v>
       </c>
       <c r="O30" t="n">
-        <v>470.5615148623809</v>
+        <v>470.561514862381</v>
       </c>
       <c r="P30" t="n">
-        <v>377.6671011130263</v>
+        <v>377.6671011130264</v>
       </c>
       <c r="Q30" t="n">
-        <v>252.4604554824181</v>
+        <v>252.4604554824182</v>
       </c>
       <c r="R30" t="n">
         <v>122.7951555734302</v>
       </c>
       <c r="S30" t="n">
-        <v>36.73618846096893</v>
+        <v>36.73618846096894</v>
       </c>
       <c r="T30" t="n">
-        <v>7.971796268153591</v>
+        <v>7.971796268153593</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1301163699916256</v>
+        <v>0.1301163699916257</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,31 +33332,31 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.658094944374157</v>
+        <v>1.658094944374158</v>
       </c>
       <c r="H31" t="n">
-        <v>14.74197141452661</v>
+        <v>14.74197141452662</v>
       </c>
       <c r="I31" t="n">
-        <v>49.86343705445195</v>
+        <v>49.86343705445196</v>
       </c>
       <c r="J31" t="n">
-        <v>117.2273125672529</v>
+        <v>117.227312567253</v>
       </c>
       <c r="K31" t="n">
-        <v>192.6404853554702</v>
+        <v>192.6404853554703</v>
       </c>
       <c r="L31" t="n">
         <v>246.5134974572271</v>
       </c>
       <c r="M31" t="n">
-        <v>259.9139193258508</v>
+        <v>259.9139193258509</v>
       </c>
       <c r="N31" t="n">
         <v>253.7337472604565</v>
       </c>
       <c r="O31" t="n">
-        <v>234.3641835920855</v>
+        <v>234.3641835920856</v>
       </c>
       <c r="P31" t="n">
         <v>200.5390467268526</v>
@@ -33365,16 +33365,16 @@
         <v>138.8428412057306</v>
       </c>
       <c r="R31" t="n">
-        <v>74.55397813522346</v>
+        <v>74.55397813522347</v>
       </c>
       <c r="S31" t="n">
         <v>28.89607280332054</v>
       </c>
       <c r="T31" t="n">
-        <v>7.084587489598671</v>
+        <v>7.084587489598673</v>
       </c>
       <c r="U31" t="n">
-        <v>0.09044154242040869</v>
+        <v>0.09044154242040872</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33414,40 +33414,40 @@
         <v>3.696438249678339</v>
       </c>
       <c r="H32" t="n">
-        <v>37.85614822451829</v>
+        <v>37.85614822451831</v>
       </c>
       <c r="I32" t="n">
         <v>142.5069356207243</v>
       </c>
       <c r="J32" t="n">
-        <v>313.7305758936372</v>
+        <v>313.7305758936373</v>
       </c>
       <c r="K32" t="n">
-        <v>470.2008070025213</v>
+        <v>470.2008070025215</v>
       </c>
       <c r="L32" t="n">
-        <v>583.325679086115</v>
+        <v>583.3256790861151</v>
       </c>
       <c r="M32" t="n">
-        <v>649.0622128088321</v>
+        <v>649.0622128088322</v>
       </c>
       <c r="N32" t="n">
-        <v>659.5647179857307</v>
+        <v>659.5647179857309</v>
       </c>
       <c r="O32" t="n">
-        <v>622.8082601404917</v>
+        <v>622.8082601404918</v>
       </c>
       <c r="P32" t="n">
-        <v>531.5524408515575</v>
+        <v>531.5524408515578</v>
       </c>
       <c r="Q32" t="n">
         <v>399.173746034952</v>
       </c>
       <c r="R32" t="n">
-        <v>232.1963892013571</v>
+        <v>232.1963892013572</v>
       </c>
       <c r="S32" t="n">
-        <v>84.23258661454523</v>
+        <v>84.23258661454524</v>
       </c>
       <c r="T32" t="n">
         <v>16.18115843796694</v>
@@ -33496,43 +33496,43 @@
         <v>19.10108311477064</v>
       </c>
       <c r="I33" t="n">
-        <v>68.09423362895073</v>
+        <v>68.09423362895075</v>
       </c>
       <c r="J33" t="n">
         <v>186.8557817326405</v>
       </c>
       <c r="K33" t="n">
-        <v>319.3662929321119</v>
+        <v>319.3662929321121</v>
       </c>
       <c r="L33" t="n">
-        <v>429.427393095695</v>
+        <v>429.4273930956951</v>
       </c>
       <c r="M33" t="n">
-        <v>501.1215129610806</v>
+        <v>501.1215129610807</v>
       </c>
       <c r="N33" t="n">
-        <v>514.3847082755603</v>
+        <v>514.3847082755605</v>
       </c>
       <c r="O33" t="n">
-        <v>470.5615148623809</v>
+        <v>470.561514862381</v>
       </c>
       <c r="P33" t="n">
-        <v>377.6671011130263</v>
+        <v>377.6671011130264</v>
       </c>
       <c r="Q33" t="n">
-        <v>252.4604554824181</v>
+        <v>252.4604554824182</v>
       </c>
       <c r="R33" t="n">
         <v>122.7951555734302</v>
       </c>
       <c r="S33" t="n">
-        <v>36.73618846096893</v>
+        <v>36.73618846096894</v>
       </c>
       <c r="T33" t="n">
-        <v>7.971796268153591</v>
+        <v>7.971796268153593</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1301163699916256</v>
+        <v>0.1301163699916257</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,31 +33569,31 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.658094944374157</v>
+        <v>1.658094944374158</v>
       </c>
       <c r="H34" t="n">
-        <v>14.74197141452661</v>
+        <v>14.74197141452662</v>
       </c>
       <c r="I34" t="n">
-        <v>49.86343705445195</v>
+        <v>49.86343705445196</v>
       </c>
       <c r="J34" t="n">
-        <v>117.2273125672529</v>
+        <v>117.227312567253</v>
       </c>
       <c r="K34" t="n">
-        <v>192.6404853554702</v>
+        <v>192.6404853554703</v>
       </c>
       <c r="L34" t="n">
         <v>246.5134974572271</v>
       </c>
       <c r="M34" t="n">
-        <v>259.9139193258508</v>
+        <v>259.9139193258509</v>
       </c>
       <c r="N34" t="n">
         <v>253.7337472604565</v>
       </c>
       <c r="O34" t="n">
-        <v>234.3641835920855</v>
+        <v>234.3641835920856</v>
       </c>
       <c r="P34" t="n">
         <v>200.5390467268526</v>
@@ -33602,16 +33602,16 @@
         <v>138.8428412057306</v>
       </c>
       <c r="R34" t="n">
-        <v>74.55397813522346</v>
+        <v>74.55397813522347</v>
       </c>
       <c r="S34" t="n">
         <v>28.89607280332054</v>
       </c>
       <c r="T34" t="n">
-        <v>7.084587489598671</v>
+        <v>7.084587489598673</v>
       </c>
       <c r="U34" t="n">
-        <v>0.09044154242040869</v>
+        <v>0.09044154242040872</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33651,40 +33651,40 @@
         <v>3.696438249678339</v>
       </c>
       <c r="H35" t="n">
-        <v>37.85614822451829</v>
+        <v>37.85614822451831</v>
       </c>
       <c r="I35" t="n">
         <v>142.5069356207243</v>
       </c>
       <c r="J35" t="n">
-        <v>313.7305758936372</v>
+        <v>313.7305758936373</v>
       </c>
       <c r="K35" t="n">
-        <v>470.2008070025213</v>
+        <v>470.2008070025215</v>
       </c>
       <c r="L35" t="n">
-        <v>583.325679086115</v>
+        <v>583.3256790861151</v>
       </c>
       <c r="M35" t="n">
-        <v>649.0622128088321</v>
+        <v>649.0622128088322</v>
       </c>
       <c r="N35" t="n">
-        <v>659.5647179857307</v>
+        <v>659.5647179857309</v>
       </c>
       <c r="O35" t="n">
-        <v>622.8082601404917</v>
+        <v>622.8082601404918</v>
       </c>
       <c r="P35" t="n">
-        <v>531.5524408515575</v>
+        <v>531.5524408515578</v>
       </c>
       <c r="Q35" t="n">
         <v>399.173746034952</v>
       </c>
       <c r="R35" t="n">
-        <v>232.1963892013571</v>
+        <v>232.1963892013572</v>
       </c>
       <c r="S35" t="n">
-        <v>84.23258661454523</v>
+        <v>84.23258661454524</v>
       </c>
       <c r="T35" t="n">
         <v>16.18115843796694</v>
@@ -33733,43 +33733,43 @@
         <v>19.10108311477064</v>
       </c>
       <c r="I36" t="n">
-        <v>68.09423362895073</v>
+        <v>68.09423362895075</v>
       </c>
       <c r="J36" t="n">
         <v>186.8557817326405</v>
       </c>
       <c r="K36" t="n">
-        <v>319.3662929321119</v>
+        <v>319.3662929321121</v>
       </c>
       <c r="L36" t="n">
-        <v>429.427393095695</v>
+        <v>429.4273930956951</v>
       </c>
       <c r="M36" t="n">
-        <v>501.1215129610806</v>
+        <v>501.1215129610807</v>
       </c>
       <c r="N36" t="n">
-        <v>514.3847082755603</v>
+        <v>514.3847082755605</v>
       </c>
       <c r="O36" t="n">
-        <v>470.5615148623809</v>
+        <v>470.561514862381</v>
       </c>
       <c r="P36" t="n">
-        <v>377.6671011130263</v>
+        <v>377.6671011130264</v>
       </c>
       <c r="Q36" t="n">
-        <v>252.4604554824181</v>
+        <v>252.4604554824182</v>
       </c>
       <c r="R36" t="n">
         <v>122.7951555734302</v>
       </c>
       <c r="S36" t="n">
-        <v>36.73618846096893</v>
+        <v>36.73618846096894</v>
       </c>
       <c r="T36" t="n">
-        <v>7.971796268153591</v>
+        <v>7.971796268153593</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1301163699916256</v>
+        <v>0.1301163699916257</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,31 +33806,31 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.658094944374157</v>
+        <v>1.658094944374158</v>
       </c>
       <c r="H37" t="n">
-        <v>14.74197141452661</v>
+        <v>14.74197141452662</v>
       </c>
       <c r="I37" t="n">
-        <v>49.86343705445195</v>
+        <v>49.86343705445196</v>
       </c>
       <c r="J37" t="n">
-        <v>117.2273125672529</v>
+        <v>117.227312567253</v>
       </c>
       <c r="K37" t="n">
-        <v>192.6404853554702</v>
+        <v>192.6404853554703</v>
       </c>
       <c r="L37" t="n">
         <v>246.5134974572271</v>
       </c>
       <c r="M37" t="n">
-        <v>259.9139193258508</v>
+        <v>259.9139193258509</v>
       </c>
       <c r="N37" t="n">
         <v>253.7337472604565</v>
       </c>
       <c r="O37" t="n">
-        <v>234.3641835920855</v>
+        <v>234.3641835920856</v>
       </c>
       <c r="P37" t="n">
         <v>200.5390467268526</v>
@@ -33839,16 +33839,16 @@
         <v>138.8428412057306</v>
       </c>
       <c r="R37" t="n">
-        <v>74.55397813522346</v>
+        <v>74.55397813522347</v>
       </c>
       <c r="S37" t="n">
         <v>28.89607280332054</v>
       </c>
       <c r="T37" t="n">
-        <v>7.084587489598671</v>
+        <v>7.084587489598673</v>
       </c>
       <c r="U37" t="n">
-        <v>0.09044154242040869</v>
+        <v>0.09044154242040872</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33888,40 +33888,40 @@
         <v>3.696438249678339</v>
       </c>
       <c r="H38" t="n">
-        <v>37.85614822451829</v>
+        <v>37.85614822451831</v>
       </c>
       <c r="I38" t="n">
         <v>142.5069356207243</v>
       </c>
       <c r="J38" t="n">
-        <v>313.7305758936372</v>
+        <v>313.7305758936373</v>
       </c>
       <c r="K38" t="n">
-        <v>470.2008070025213</v>
+        <v>470.2008070025215</v>
       </c>
       <c r="L38" t="n">
-        <v>583.325679086115</v>
+        <v>583.3256790861151</v>
       </c>
       <c r="M38" t="n">
-        <v>649.0622128088321</v>
+        <v>649.0622128088322</v>
       </c>
       <c r="N38" t="n">
-        <v>659.5647179857307</v>
+        <v>659.5647179857309</v>
       </c>
       <c r="O38" t="n">
-        <v>622.8082601404917</v>
+        <v>622.8082601404918</v>
       </c>
       <c r="P38" t="n">
-        <v>531.5524408515575</v>
+        <v>531.5524408515578</v>
       </c>
       <c r="Q38" t="n">
         <v>399.173746034952</v>
       </c>
       <c r="R38" t="n">
-        <v>232.1963892013571</v>
+        <v>232.1963892013572</v>
       </c>
       <c r="S38" t="n">
-        <v>84.23258661454523</v>
+        <v>84.23258661454524</v>
       </c>
       <c r="T38" t="n">
         <v>16.18115843796694</v>
@@ -33970,43 +33970,43 @@
         <v>19.10108311477064</v>
       </c>
       <c r="I39" t="n">
-        <v>68.09423362895073</v>
+        <v>68.09423362895075</v>
       </c>
       <c r="J39" t="n">
         <v>186.8557817326405</v>
       </c>
       <c r="K39" t="n">
-        <v>319.3662929321119</v>
+        <v>319.3662929321121</v>
       </c>
       <c r="L39" t="n">
-        <v>429.427393095695</v>
+        <v>429.4273930956951</v>
       </c>
       <c r="M39" t="n">
-        <v>501.1215129610806</v>
+        <v>501.1215129610807</v>
       </c>
       <c r="N39" t="n">
-        <v>514.3847082755603</v>
+        <v>514.3847082755605</v>
       </c>
       <c r="O39" t="n">
-        <v>470.5615148623809</v>
+        <v>470.561514862381</v>
       </c>
       <c r="P39" t="n">
-        <v>377.6671011130263</v>
+        <v>377.6671011130264</v>
       </c>
       <c r="Q39" t="n">
-        <v>252.4604554824181</v>
+        <v>252.4604554824182</v>
       </c>
       <c r="R39" t="n">
         <v>122.7951555734302</v>
       </c>
       <c r="S39" t="n">
-        <v>36.73618846096893</v>
+        <v>36.73618846096894</v>
       </c>
       <c r="T39" t="n">
-        <v>7.971796268153591</v>
+        <v>7.971796268153593</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1301163699916256</v>
+        <v>0.1301163699916257</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,31 +34043,31 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.658094944374157</v>
+        <v>1.658094944374158</v>
       </c>
       <c r="H40" t="n">
-        <v>14.74197141452661</v>
+        <v>14.74197141452662</v>
       </c>
       <c r="I40" t="n">
-        <v>49.86343705445195</v>
+        <v>49.86343705445196</v>
       </c>
       <c r="J40" t="n">
-        <v>117.2273125672529</v>
+        <v>117.227312567253</v>
       </c>
       <c r="K40" t="n">
-        <v>192.6404853554702</v>
+        <v>192.6404853554703</v>
       </c>
       <c r="L40" t="n">
         <v>246.5134974572271</v>
       </c>
       <c r="M40" t="n">
-        <v>259.9139193258508</v>
+        <v>259.9139193258509</v>
       </c>
       <c r="N40" t="n">
         <v>253.7337472604565</v>
       </c>
       <c r="O40" t="n">
-        <v>234.3641835920855</v>
+        <v>234.3641835920856</v>
       </c>
       <c r="P40" t="n">
         <v>200.5390467268526</v>
@@ -34076,16 +34076,16 @@
         <v>138.8428412057306</v>
       </c>
       <c r="R40" t="n">
-        <v>74.55397813522346</v>
+        <v>74.55397813522347</v>
       </c>
       <c r="S40" t="n">
         <v>28.89607280332054</v>
       </c>
       <c r="T40" t="n">
-        <v>7.084587489598671</v>
+        <v>7.084587489598673</v>
       </c>
       <c r="U40" t="n">
-        <v>0.09044154242040869</v>
+        <v>0.09044154242040872</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34125,40 +34125,40 @@
         <v>3.696438249678339</v>
       </c>
       <c r="H41" t="n">
-        <v>37.85614822451829</v>
+        <v>37.85614822451831</v>
       </c>
       <c r="I41" t="n">
         <v>142.5069356207243</v>
       </c>
       <c r="J41" t="n">
-        <v>313.7305758936372</v>
+        <v>313.7305758936373</v>
       </c>
       <c r="K41" t="n">
-        <v>470.2008070025213</v>
+        <v>470.2008070025215</v>
       </c>
       <c r="L41" t="n">
-        <v>583.325679086115</v>
+        <v>583.3256790861151</v>
       </c>
       <c r="M41" t="n">
-        <v>649.0622128088321</v>
+        <v>649.0622128088322</v>
       </c>
       <c r="N41" t="n">
-        <v>659.5647179857307</v>
+        <v>659.5647179857309</v>
       </c>
       <c r="O41" t="n">
-        <v>622.8082601404917</v>
+        <v>622.8082601404918</v>
       </c>
       <c r="P41" t="n">
-        <v>531.5524408515575</v>
+        <v>531.5524408515578</v>
       </c>
       <c r="Q41" t="n">
         <v>399.173746034952</v>
       </c>
       <c r="R41" t="n">
-        <v>232.1963892013571</v>
+        <v>232.1963892013572</v>
       </c>
       <c r="S41" t="n">
-        <v>84.23258661454523</v>
+        <v>84.23258661454524</v>
       </c>
       <c r="T41" t="n">
         <v>16.18115843796694</v>
@@ -34207,43 +34207,43 @@
         <v>19.10108311477064</v>
       </c>
       <c r="I42" t="n">
-        <v>68.09423362895073</v>
+        <v>68.09423362895075</v>
       </c>
       <c r="J42" t="n">
         <v>186.8557817326405</v>
       </c>
       <c r="K42" t="n">
-        <v>319.3662929321119</v>
+        <v>319.3662929321121</v>
       </c>
       <c r="L42" t="n">
-        <v>429.427393095695</v>
+        <v>429.4273930956951</v>
       </c>
       <c r="M42" t="n">
-        <v>501.1215129610806</v>
+        <v>501.1215129610807</v>
       </c>
       <c r="N42" t="n">
-        <v>514.3847082755603</v>
+        <v>514.3847082755605</v>
       </c>
       <c r="O42" t="n">
-        <v>470.5615148623809</v>
+        <v>470.561514862381</v>
       </c>
       <c r="P42" t="n">
-        <v>377.6671011130263</v>
+        <v>377.6671011130264</v>
       </c>
       <c r="Q42" t="n">
-        <v>252.4604554824181</v>
+        <v>252.4604554824182</v>
       </c>
       <c r="R42" t="n">
         <v>122.7951555734302</v>
       </c>
       <c r="S42" t="n">
-        <v>36.73618846096893</v>
+        <v>36.73618846096894</v>
       </c>
       <c r="T42" t="n">
-        <v>7.971796268153591</v>
+        <v>7.971796268153593</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1301163699916256</v>
+        <v>0.1301163699916257</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,31 +34280,31 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.658094944374157</v>
+        <v>1.658094944374158</v>
       </c>
       <c r="H43" t="n">
-        <v>14.74197141452661</v>
+        <v>14.74197141452662</v>
       </c>
       <c r="I43" t="n">
-        <v>49.86343705445195</v>
+        <v>49.86343705445196</v>
       </c>
       <c r="J43" t="n">
-        <v>117.2273125672529</v>
+        <v>117.227312567253</v>
       </c>
       <c r="K43" t="n">
-        <v>192.6404853554702</v>
+        <v>192.6404853554703</v>
       </c>
       <c r="L43" t="n">
         <v>246.5134974572271</v>
       </c>
       <c r="M43" t="n">
-        <v>259.9139193258508</v>
+        <v>259.9139193258509</v>
       </c>
       <c r="N43" t="n">
         <v>253.7337472604565</v>
       </c>
       <c r="O43" t="n">
-        <v>234.3641835920855</v>
+        <v>234.3641835920856</v>
       </c>
       <c r="P43" t="n">
         <v>200.5390467268526</v>
@@ -34313,16 +34313,16 @@
         <v>138.8428412057306</v>
       </c>
       <c r="R43" t="n">
-        <v>74.55397813522346</v>
+        <v>74.55397813522347</v>
       </c>
       <c r="S43" t="n">
         <v>28.89607280332054</v>
       </c>
       <c r="T43" t="n">
-        <v>7.084587489598671</v>
+        <v>7.084587489598673</v>
       </c>
       <c r="U43" t="n">
-        <v>0.09044154242040869</v>
+        <v>0.09044154242040872</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.696438249678338</v>
+        <v>3.696438249678339</v>
       </c>
       <c r="H44" t="n">
-        <v>37.85614822451829</v>
+        <v>37.85614822451831</v>
       </c>
       <c r="I44" t="n">
         <v>142.5069356207243</v>
       </c>
       <c r="J44" t="n">
-        <v>313.7305758936371</v>
+        <v>313.7305758936373</v>
       </c>
       <c r="K44" t="n">
-        <v>470.2008070025213</v>
+        <v>470.2008070025215</v>
       </c>
       <c r="L44" t="n">
-        <v>583.3256790861149</v>
+        <v>583.3256790861151</v>
       </c>
       <c r="M44" t="n">
-        <v>649.062212808832</v>
+        <v>649.0622128088322</v>
       </c>
       <c r="N44" t="n">
-        <v>659.5647179857306</v>
+        <v>659.5647179857309</v>
       </c>
       <c r="O44" t="n">
-        <v>622.8082601404916</v>
+        <v>622.8082601404918</v>
       </c>
       <c r="P44" t="n">
-        <v>531.5524408515575</v>
+        <v>531.5524408515578</v>
       </c>
       <c r="Q44" t="n">
-        <v>399.1737460349519</v>
+        <v>399.173746034952</v>
       </c>
       <c r="R44" t="n">
-        <v>232.1963892013571</v>
+        <v>232.1963892013572</v>
       </c>
       <c r="S44" t="n">
-        <v>84.23258661454521</v>
+        <v>84.23258661454524</v>
       </c>
       <c r="T44" t="n">
-        <v>16.18115843796693</v>
+        <v>16.18115843796694</v>
       </c>
       <c r="U44" t="n">
-        <v>0.295715059974267</v>
+        <v>0.2957150599742671</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34441,46 +34441,46 @@
         <v>1.977768823872709</v>
       </c>
       <c r="H45" t="n">
-        <v>19.10108311477063</v>
+        <v>19.10108311477064</v>
       </c>
       <c r="I45" t="n">
-        <v>68.09423362895072</v>
+        <v>68.09423362895075</v>
       </c>
       <c r="J45" t="n">
         <v>186.8557817326405</v>
       </c>
       <c r="K45" t="n">
-        <v>319.3662929321119</v>
+        <v>319.3662929321121</v>
       </c>
       <c r="L45" t="n">
-        <v>429.427393095695</v>
+        <v>429.4273930956951</v>
       </c>
       <c r="M45" t="n">
-        <v>501.1215129610805</v>
+        <v>501.1215129610807</v>
       </c>
       <c r="N45" t="n">
-        <v>514.3847082755603</v>
+        <v>514.3847082755605</v>
       </c>
       <c r="O45" t="n">
-        <v>470.5615148623808</v>
+        <v>470.561514862381</v>
       </c>
       <c r="P45" t="n">
-        <v>377.6671011130263</v>
+        <v>377.6671011130264</v>
       </c>
       <c r="Q45" t="n">
-        <v>252.4604554824181</v>
+        <v>252.4604554824182</v>
       </c>
       <c r="R45" t="n">
         <v>122.7951555734302</v>
       </c>
       <c r="S45" t="n">
-        <v>36.73618846096893</v>
+        <v>36.73618846096894</v>
       </c>
       <c r="T45" t="n">
-        <v>7.97179626815359</v>
+        <v>7.971796268153593</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1301163699916256</v>
+        <v>0.1301163699916257</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.658094944374157</v>
+        <v>1.658094944374158</v>
       </c>
       <c r="H46" t="n">
-        <v>14.74197141452661</v>
+        <v>14.74197141452662</v>
       </c>
       <c r="I46" t="n">
-        <v>49.86343705445194</v>
+        <v>49.86343705445196</v>
       </c>
       <c r="J46" t="n">
-        <v>117.2273125672529</v>
+        <v>117.227312567253</v>
       </c>
       <c r="K46" t="n">
-        <v>192.6404853554702</v>
+        <v>192.6404853554703</v>
       </c>
       <c r="L46" t="n">
-        <v>246.513497457227</v>
+        <v>246.5134974572271</v>
       </c>
       <c r="M46" t="n">
-        <v>259.9139193258508</v>
+        <v>259.9139193258509</v>
       </c>
       <c r="N46" t="n">
         <v>253.7337472604565</v>
       </c>
       <c r="O46" t="n">
-        <v>234.3641835920855</v>
+        <v>234.3641835920856</v>
       </c>
       <c r="P46" t="n">
-        <v>200.5390467268525</v>
+        <v>200.5390467268526</v>
       </c>
       <c r="Q46" t="n">
         <v>138.8428412057306</v>
       </c>
       <c r="R46" t="n">
-        <v>74.55397813522346</v>
+        <v>74.55397813522347</v>
       </c>
       <c r="S46" t="n">
-        <v>28.89607280332053</v>
+        <v>28.89607280332054</v>
       </c>
       <c r="T46" t="n">
-        <v>7.08458748959867</v>
+        <v>7.084587489598673</v>
       </c>
       <c r="U46" t="n">
-        <v>0.09044154242040868</v>
+        <v>0.09044154242040872</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35412,28 +35412,28 @@
         <v>132.6846713669509</v>
       </c>
       <c r="K11" t="n">
-        <v>250.1109559575408</v>
+        <v>250.1109559575407</v>
       </c>
       <c r="L11" t="n">
-        <v>347.5592641161277</v>
+        <v>347.5592641161276</v>
       </c>
       <c r="M11" t="n">
-        <v>418.7159795815594</v>
+        <v>418.7159795815593</v>
       </c>
       <c r="N11" t="n">
-        <v>430.1516543891398</v>
+        <v>430.1516543891397</v>
       </c>
       <c r="O11" t="n">
-        <v>392.710048718805</v>
+        <v>392.7100487188048</v>
       </c>
       <c r="P11" t="n">
         <v>300.319445096288</v>
       </c>
       <c r="Q11" t="n">
-        <v>176.8680561605025</v>
+        <v>176.8680561605024</v>
       </c>
       <c r="R11" t="n">
-        <v>16.61085138722501</v>
+        <v>16.61085138722498</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>60.01815506597379</v>
+        <v>60.01815506597376</v>
       </c>
       <c r="K12" t="n">
         <v>181.524853957753</v>
@@ -35497,7 +35497,7 @@
         <v>290.8730133158208</v>
       </c>
       <c r="M12" t="n">
-        <v>358.9874790390623</v>
+        <v>547.6724940893978</v>
       </c>
       <c r="N12" t="n">
         <v>383.0429961922271</v>
@@ -35506,13 +35506,13 @@
         <v>327.9652704179364</v>
       </c>
       <c r="P12" t="n">
-        <v>518.125868232334</v>
+        <v>562.1554623386332</v>
       </c>
       <c r="Q12" t="n">
-        <v>322.5559691322457</v>
+        <v>112.4786813963966</v>
       </c>
       <c r="R12" t="n">
-        <v>22.63732142078703</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>23.86813245058015</v>
+        <v>23.86813245058013</v>
       </c>
       <c r="K13" t="n">
         <v>170.3709935295874</v>
@@ -35579,13 +35579,13 @@
         <v>299.4977962876914</v>
       </c>
       <c r="N13" t="n">
-        <v>297.8659196396851</v>
+        <v>297.865919639685</v>
       </c>
       <c r="O13" t="n">
         <v>258.9493115061252</v>
       </c>
       <c r="P13" t="n">
-        <v>197.8176059917461</v>
+        <v>197.817605991746</v>
       </c>
       <c r="Q13" t="n">
         <v>52.68079795403621</v>
@@ -35649,7 +35649,7 @@
         <v>132.6846713669509</v>
       </c>
       <c r="K14" t="n">
-        <v>250.1109559575409</v>
+        <v>250.1109559575408</v>
       </c>
       <c r="L14" t="n">
         <v>347.5592641161277</v>
@@ -35658,19 +35658,19 @@
         <v>418.7159795815594</v>
       </c>
       <c r="N14" t="n">
-        <v>430.1516543891399</v>
+        <v>430.1516543891398</v>
       </c>
       <c r="O14" t="n">
         <v>392.710048718805</v>
       </c>
       <c r="P14" t="n">
-        <v>300.3194450962881</v>
+        <v>300.319445096288</v>
       </c>
       <c r="Q14" t="n">
-        <v>176.8680561605026</v>
+        <v>176.8680561605025</v>
       </c>
       <c r="R14" t="n">
-        <v>16.61085138722504</v>
+        <v>16.61085138722501</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>186.1091904063827</v>
+        <v>186.1091904063826</v>
       </c>
       <c r="K15" t="n">
-        <v>181.524853957753</v>
+        <v>329.8669931509811</v>
       </c>
       <c r="L15" t="n">
-        <v>290.8730133158209</v>
+        <v>290.8730133158208</v>
       </c>
       <c r="M15" t="n">
-        <v>622.7228616087751</v>
+        <v>358.9874790390623</v>
       </c>
       <c r="N15" t="n">
-        <v>500.3643619723789</v>
+        <v>383.0429961922271</v>
       </c>
       <c r="O15" t="n">
-        <v>327.9652704179365</v>
+        <v>327.9652704179364</v>
       </c>
       <c r="P15" t="n">
         <v>243.6926936986961</v>
       </c>
       <c r="Q15" t="n">
-        <v>112.4786813963966</v>
+        <v>322.5559691322457</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>22.63732142078703</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>23.86813245058016</v>
+        <v>23.86813245058015</v>
       </c>
       <c r="K16" t="n">
         <v>170.3709935295874</v>
@@ -35813,7 +35813,7 @@
         <v>274.1035227175432</v>
       </c>
       <c r="M16" t="n">
-        <v>299.4977962876915</v>
+        <v>299.4977962876914</v>
       </c>
       <c r="N16" t="n">
         <v>297.8659196396851</v>
@@ -35825,7 +35825,7 @@
         <v>197.8176059917461</v>
       </c>
       <c r="Q16" t="n">
-        <v>52.68079795403624</v>
+        <v>52.68079795403621</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35965,7 +35965,7 @@
         <v>186.1091904063827</v>
       </c>
       <c r="K18" t="n">
-        <v>352.5043145717692</v>
+        <v>329.8669931509813</v>
       </c>
       <c r="L18" t="n">
         <v>290.8730133158209</v>
@@ -35986,7 +35986,7 @@
         <v>322.5559691322458</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>22.63732142078706</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36205,7 +36205,7 @@
         <v>445.9900909703317</v>
       </c>
       <c r="L21" t="n">
-        <v>290.8730133158209</v>
+        <v>384.8272032323205</v>
       </c>
       <c r="M21" t="n">
         <v>358.9874790390624</v>
@@ -36217,13 +36217,13 @@
         <v>327.9652704179366</v>
       </c>
       <c r="P21" t="n">
-        <v>360.2842050359829</v>
+        <v>243.6926936986962</v>
       </c>
       <c r="Q21" t="n">
         <v>112.4786813963966</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>22.63732142078706</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>132.6846713669509</v>
+        <v>132.684671366951</v>
       </c>
       <c r="K23" t="n">
-        <v>250.1109559575408</v>
+        <v>250.1109559575409</v>
       </c>
       <c r="L23" t="n">
-        <v>347.5592641161277</v>
+        <v>347.5592641161278</v>
       </c>
       <c r="M23" t="n">
-        <v>418.7159795815594</v>
+        <v>418.7159795815595</v>
       </c>
       <c r="N23" t="n">
-        <v>430.1516543891398</v>
+        <v>437.3289193191845</v>
       </c>
       <c r="O23" t="n">
-        <v>392.710048718805</v>
+        <v>392.7100487188051</v>
       </c>
       <c r="P23" t="n">
-        <v>300.319445096288</v>
+        <v>300.3194450962882</v>
       </c>
       <c r="Q23" t="n">
-        <v>184.0453210905487</v>
+        <v>176.8680561605026</v>
       </c>
       <c r="R23" t="n">
-        <v>82.32727126020745</v>
+        <v>82.32727126020751</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>142.879777390061</v>
+        <v>165.5170988108468</v>
       </c>
       <c r="K24" t="n">
-        <v>445.9900909703316</v>
+        <v>445.9900909703317</v>
       </c>
       <c r="L24" t="n">
-        <v>290.8730133158208</v>
+        <v>290.8730133158209</v>
       </c>
       <c r="M24" t="n">
-        <v>358.9874790390623</v>
+        <v>358.9874790390624</v>
       </c>
       <c r="N24" t="n">
-        <v>383.0429961922271</v>
+        <v>383.0429961922272</v>
       </c>
       <c r="O24" t="n">
-        <v>327.9652704179364</v>
+        <v>327.9652704179366</v>
       </c>
       <c r="P24" t="n">
-        <v>243.6926936986961</v>
+        <v>243.6926936986962</v>
       </c>
       <c r="Q24" t="n">
-        <v>322.5559691322457</v>
+        <v>322.5559691322458</v>
       </c>
       <c r="R24" t="n">
-        <v>22.63732142078703</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,16 +36515,16 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>23.86813245058015</v>
+        <v>23.86813245058018</v>
       </c>
       <c r="K25" t="n">
-        <v>170.3709935295874</v>
+        <v>170.3709935295875</v>
       </c>
       <c r="L25" t="n">
         <v>274.1035227175432</v>
       </c>
       <c r="M25" t="n">
-        <v>299.4977962876914</v>
+        <v>299.4977962876915</v>
       </c>
       <c r="N25" t="n">
         <v>297.8659196396851</v>
@@ -36536,7 +36536,7 @@
         <v>197.8176059917461</v>
       </c>
       <c r="Q25" t="n">
-        <v>52.68079795403621</v>
+        <v>52.68079795403624</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>132.6846713669509</v>
+        <v>205.5783561699785</v>
       </c>
       <c r="K26" t="n">
-        <v>323.0046407605695</v>
+        <v>250.1109559575409</v>
       </c>
       <c r="L26" t="n">
-        <v>347.5592641161277</v>
+        <v>347.5592641161278</v>
       </c>
       <c r="M26" t="n">
-        <v>418.7159795815594</v>
+        <v>418.7159795815595</v>
       </c>
       <c r="N26" t="n">
-        <v>430.1516543891398</v>
+        <v>430.15165438914</v>
       </c>
       <c r="O26" t="n">
-        <v>392.710048718805</v>
+        <v>392.7100487188051</v>
       </c>
       <c r="P26" t="n">
-        <v>300.319445096288</v>
+        <v>300.3194450962882</v>
       </c>
       <c r="Q26" t="n">
-        <v>176.8680561605025</v>
+        <v>176.8680561605026</v>
       </c>
       <c r="R26" t="n">
-        <v>16.61085138722501</v>
+        <v>16.61085138722507</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,31 +36673,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>60.01815506597379</v>
+        <v>186.1091904063827</v>
       </c>
       <c r="K27" t="n">
-        <v>181.524853957753</v>
+        <v>425.3979993747963</v>
       </c>
       <c r="L27" t="n">
-        <v>641.1322360870909</v>
+        <v>290.8730133158209</v>
       </c>
       <c r="M27" t="n">
-        <v>358.9874790390623</v>
+        <v>358.9874790390624</v>
       </c>
       <c r="N27" t="n">
-        <v>383.0429961922271</v>
+        <v>383.0429961922272</v>
       </c>
       <c r="O27" t="n">
-        <v>327.9652704179364</v>
+        <v>327.9652704179366</v>
       </c>
       <c r="P27" t="n">
-        <v>450.8376179999411</v>
+        <v>243.6926936986962</v>
       </c>
       <c r="Q27" t="n">
-        <v>112.4786813963966</v>
+        <v>322.5559691322458</v>
       </c>
       <c r="R27" t="n">
-        <v>22.63732142078703</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,16 +36752,16 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>23.86813245058015</v>
+        <v>23.86813245058018</v>
       </c>
       <c r="K28" t="n">
-        <v>170.3709935295874</v>
+        <v>170.3709935295875</v>
       </c>
       <c r="L28" t="n">
         <v>274.1035227175432</v>
       </c>
       <c r="M28" t="n">
-        <v>299.4977962876914</v>
+        <v>299.4977962876915</v>
       </c>
       <c r="N28" t="n">
         <v>297.8659196396851</v>
@@ -36773,7 +36773,7 @@
         <v>197.8176059917461</v>
       </c>
       <c r="Q28" t="n">
-        <v>52.68079795403621</v>
+        <v>52.68079795403624</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>132.6846713669509</v>
+        <v>205.5783561699781</v>
       </c>
       <c r="K29" t="n">
-        <v>250.1109559575408</v>
+        <v>250.1109559575409</v>
       </c>
       <c r="L29" t="n">
-        <v>347.5592641161277</v>
+        <v>347.5592641161278</v>
       </c>
       <c r="M29" t="n">
-        <v>418.7159795815594</v>
+        <v>418.7159795815595</v>
       </c>
       <c r="N29" t="n">
-        <v>430.1516543891398</v>
+        <v>430.15165438914</v>
       </c>
       <c r="O29" t="n">
-        <v>392.710048718805</v>
+        <v>392.7100487188051</v>
       </c>
       <c r="P29" t="n">
-        <v>373.2131298993163</v>
+        <v>300.3194450962882</v>
       </c>
       <c r="Q29" t="n">
-        <v>176.8680561605025</v>
+        <v>176.8680561605026</v>
       </c>
       <c r="R29" t="n">
-        <v>16.61085138722501</v>
+        <v>16.61085138722507</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>77.18830519559606</v>
+        <v>186.1091904063827</v>
       </c>
       <c r="K30" t="n">
-        <v>181.524853957753</v>
+        <v>425.3979993747958</v>
       </c>
       <c r="L30" t="n">
-        <v>290.8730133158208</v>
+        <v>290.8730133158209</v>
       </c>
       <c r="M30" t="n">
-        <v>641.1322360870907</v>
+        <v>358.9874790390624</v>
       </c>
       <c r="N30" t="n">
-        <v>641.1322360870907</v>
+        <v>383.0429961922272</v>
       </c>
       <c r="O30" t="n">
-        <v>327.9652704179364</v>
+        <v>327.9652704179366</v>
       </c>
       <c r="P30" t="n">
-        <v>243.6926936986961</v>
+        <v>243.6926936986962</v>
       </c>
       <c r="Q30" t="n">
-        <v>112.4786813963966</v>
+        <v>322.5559691322458</v>
       </c>
       <c r="R30" t="n">
-        <v>22.63732142078703</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,16 +36989,16 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>23.86813245058015</v>
+        <v>23.86813245058018</v>
       </c>
       <c r="K31" t="n">
-        <v>170.3709935295874</v>
+        <v>170.3709935295875</v>
       </c>
       <c r="L31" t="n">
         <v>274.1035227175432</v>
       </c>
       <c r="M31" t="n">
-        <v>299.4977962876914</v>
+        <v>299.4977962876915</v>
       </c>
       <c r="N31" t="n">
         <v>297.8659196396851</v>
@@ -37010,7 +37010,7 @@
         <v>197.8176059917461</v>
       </c>
       <c r="Q31" t="n">
-        <v>52.68079795403621</v>
+        <v>52.68079795403624</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>132.6846713669509</v>
+        <v>132.684671366951</v>
       </c>
       <c r="K32" t="n">
-        <v>250.1109559575408</v>
+        <v>250.1109559575409</v>
       </c>
       <c r="L32" t="n">
-        <v>347.5592641161277</v>
+        <v>347.5592641161278</v>
       </c>
       <c r="M32" t="n">
-        <v>425.8932445116052</v>
+        <v>418.7159795815595</v>
       </c>
       <c r="N32" t="n">
-        <v>430.1516543891398</v>
+        <v>430.15165438914</v>
       </c>
       <c r="O32" t="n">
-        <v>392.710048718805</v>
+        <v>392.7100487188051</v>
       </c>
       <c r="P32" t="n">
-        <v>300.319445096288</v>
+        <v>300.3194450962882</v>
       </c>
       <c r="Q32" t="n">
-        <v>176.8680561605025</v>
+        <v>249.7617409635298</v>
       </c>
       <c r="R32" t="n">
-        <v>82.32727126020745</v>
+        <v>16.61085138722507</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>60.01815506597379</v>
+        <v>186.1091904063827</v>
       </c>
       <c r="K33" t="n">
-        <v>445.9900909703316</v>
+        <v>402.7606779540087</v>
       </c>
       <c r="L33" t="n">
-        <v>290.8730133158208</v>
+        <v>290.8730133158209</v>
       </c>
       <c r="M33" t="n">
-        <v>358.9874790390623</v>
+        <v>358.9874790390624</v>
       </c>
       <c r="N33" t="n">
-        <v>383.0429961922271</v>
+        <v>383.0429961922272</v>
       </c>
       <c r="O33" t="n">
-        <v>327.9652704179364</v>
+        <v>327.9652704179366</v>
       </c>
       <c r="P33" t="n">
-        <v>559.2689251794192</v>
+        <v>243.6926936986962</v>
       </c>
       <c r="Q33" t="n">
-        <v>112.4786813963966</v>
+        <v>322.5559691322458</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>22.63732142078706</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,16 +37226,16 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>23.86813245058015</v>
+        <v>23.86813245058018</v>
       </c>
       <c r="K34" t="n">
-        <v>170.3709935295874</v>
+        <v>170.3709935295875</v>
       </c>
       <c r="L34" t="n">
         <v>274.1035227175432</v>
       </c>
       <c r="M34" t="n">
-        <v>299.4977962876914</v>
+        <v>299.4977962876915</v>
       </c>
       <c r="N34" t="n">
         <v>297.8659196396851</v>
@@ -37247,7 +37247,7 @@
         <v>197.8176059917461</v>
       </c>
       <c r="Q34" t="n">
-        <v>52.68079795403621</v>
+        <v>52.68079795403624</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>132.6846713669518</v>
+        <v>132.684671366951</v>
       </c>
       <c r="K35" t="n">
-        <v>250.1109559575408</v>
+        <v>250.1109559575409</v>
       </c>
       <c r="L35" t="n">
-        <v>347.5592641161277</v>
+        <v>347.5592641161278</v>
       </c>
       <c r="M35" t="n">
-        <v>418.7159795815594</v>
+        <v>418.7159795815595</v>
       </c>
       <c r="N35" t="n">
-        <v>430.1516543891398</v>
+        <v>430.15165438914</v>
       </c>
       <c r="O35" t="n">
-        <v>392.710048718805</v>
+        <v>392.7100487188051</v>
       </c>
       <c r="P35" t="n">
-        <v>300.319445096288</v>
+        <v>300.3194450962888</v>
       </c>
       <c r="Q35" t="n">
-        <v>176.8680561605025</v>
+        <v>176.8680561605026</v>
       </c>
       <c r="R35" t="n">
-        <v>16.61085138722501</v>
+        <v>16.61085138722507</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>60.01815506597379</v>
+        <v>186.1091904063827</v>
       </c>
       <c r="K36" t="n">
-        <v>181.524853957753</v>
+        <v>329.8669931509822</v>
       </c>
       <c r="L36" t="n">
-        <v>622.7228616087751</v>
+        <v>290.8730133158209</v>
       </c>
       <c r="M36" t="n">
-        <v>358.9874790390623</v>
+        <v>358.9874790390624</v>
       </c>
       <c r="N36" t="n">
-        <v>383.0429961922271</v>
+        <v>383.0429961922272</v>
       </c>
       <c r="O36" t="n">
-        <v>327.9652704179364</v>
+        <v>327.9652704179366</v>
       </c>
       <c r="P36" t="n">
-        <v>396.3533076752287</v>
+        <v>243.6926936986962</v>
       </c>
       <c r="Q36" t="n">
-        <v>112.4786813963966</v>
+        <v>322.5559691322458</v>
       </c>
       <c r="R36" t="n">
-        <v>22.63732142078703</v>
+        <v>22.63732142078706</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,16 +37463,16 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>23.86813245058015</v>
+        <v>23.86813245058018</v>
       </c>
       <c r="K37" t="n">
-        <v>170.3709935295874</v>
+        <v>170.3709935295875</v>
       </c>
       <c r="L37" t="n">
         <v>274.1035227175432</v>
       </c>
       <c r="M37" t="n">
-        <v>299.4977962876914</v>
+        <v>299.4977962876915</v>
       </c>
       <c r="N37" t="n">
         <v>297.8659196396851</v>
@@ -37484,7 +37484,7 @@
         <v>197.8176059917461</v>
       </c>
       <c r="Q37" t="n">
-        <v>52.68079795403621</v>
+        <v>52.68079795403624</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>132.6846713669509</v>
+        <v>132.684671366951</v>
       </c>
       <c r="K38" t="n">
-        <v>250.1109559575408</v>
+        <v>250.1109559575409</v>
       </c>
       <c r="L38" t="n">
-        <v>347.5592641161277</v>
+        <v>347.5592641161278</v>
       </c>
       <c r="M38" t="n">
-        <v>418.7159795815594</v>
+        <v>418.7159795815595</v>
       </c>
       <c r="N38" t="n">
-        <v>430.1516543891398</v>
+        <v>430.15165438914</v>
       </c>
       <c r="O38" t="n">
-        <v>392.710048718805</v>
+        <v>392.7100487188051</v>
       </c>
       <c r="P38" t="n">
-        <v>300.319445096288</v>
+        <v>300.3194450962882</v>
       </c>
       <c r="Q38" t="n">
-        <v>176.8680561605025</v>
+        <v>176.8680561605026</v>
       </c>
       <c r="R38" t="n">
-        <v>16.61085138722501</v>
+        <v>16.61085138722507</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>60.01815506597379</v>
+        <v>69.98609258703314</v>
       </c>
       <c r="K39" t="n">
-        <v>181.524853957753</v>
+        <v>445.9900909703317</v>
       </c>
       <c r="L39" t="n">
-        <v>290.8730133158208</v>
+        <v>290.8730133158209</v>
       </c>
       <c r="M39" t="n">
-        <v>548.7403501177102</v>
+        <v>358.9874790390624</v>
       </c>
       <c r="N39" t="n">
-        <v>383.0429961922271</v>
+        <v>383.0429961922272</v>
       </c>
       <c r="O39" t="n">
-        <v>622.7228616087751</v>
+        <v>327.9652704179366</v>
       </c>
       <c r="P39" t="n">
-        <v>243.6926936986961</v>
+        <v>243.6926936986962</v>
       </c>
       <c r="Q39" t="n">
-        <v>112.4786813963966</v>
+        <v>322.5559691322458</v>
       </c>
       <c r="R39" t="n">
-        <v>22.63732142078703</v>
+        <v>22.63732142078706</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,16 +37700,16 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>23.86813245058015</v>
+        <v>23.86813245058018</v>
       </c>
       <c r="K40" t="n">
-        <v>170.3709935295874</v>
+        <v>170.3709935295875</v>
       </c>
       <c r="L40" t="n">
         <v>274.1035227175432</v>
       </c>
       <c r="M40" t="n">
-        <v>299.4977962876914</v>
+        <v>299.4977962876915</v>
       </c>
       <c r="N40" t="n">
         <v>297.8659196396851</v>
@@ -37721,7 +37721,7 @@
         <v>197.8176059917461</v>
       </c>
       <c r="Q40" t="n">
-        <v>52.68079795403621</v>
+        <v>52.68079795403624</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>132.6846713669509</v>
+        <v>132.684671366951</v>
       </c>
       <c r="K41" t="n">
-        <v>250.1109559575408</v>
+        <v>250.1109559575409</v>
       </c>
       <c r="L41" t="n">
-        <v>347.5592641161277</v>
+        <v>347.5592641161278</v>
       </c>
       <c r="M41" t="n">
-        <v>418.7159795815594</v>
+        <v>418.7159795815588</v>
       </c>
       <c r="N41" t="n">
-        <v>430.1516543891398</v>
+        <v>430.15165438914</v>
       </c>
       <c r="O41" t="n">
-        <v>392.710048718805</v>
+        <v>392.7100487188051</v>
       </c>
       <c r="P41" t="n">
-        <v>300.319445096288</v>
+        <v>300.3194450962882</v>
       </c>
       <c r="Q41" t="n">
-        <v>176.8680561605025</v>
+        <v>176.8680561605026</v>
       </c>
       <c r="R41" t="n">
-        <v>16.61085138722501</v>
+        <v>16.61085138722507</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>69.98609258703304</v>
+        <v>186.1091904063827</v>
       </c>
       <c r="K42" t="n">
-        <v>445.9900909703316</v>
+        <v>329.8669931509809</v>
       </c>
       <c r="L42" t="n">
-        <v>290.8730133158208</v>
+        <v>290.8730133158209</v>
       </c>
       <c r="M42" t="n">
-        <v>358.9874790390623</v>
+        <v>358.9874790390624</v>
       </c>
       <c r="N42" t="n">
-        <v>383.0429961922271</v>
+        <v>383.0429961922272</v>
       </c>
       <c r="O42" t="n">
-        <v>327.9652704179364</v>
+        <v>327.9652704179366</v>
       </c>
       <c r="P42" t="n">
-        <v>243.6926936986961</v>
+        <v>243.6926936986962</v>
       </c>
       <c r="Q42" t="n">
-        <v>322.5559691322457</v>
+        <v>322.5559691322458</v>
       </c>
       <c r="R42" t="n">
-        <v>22.63732142078703</v>
+        <v>22.63732142078706</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,16 +37937,16 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>23.86813245058015</v>
+        <v>23.86813245058018</v>
       </c>
       <c r="K43" t="n">
-        <v>170.3709935295874</v>
+        <v>170.3709935295875</v>
       </c>
       <c r="L43" t="n">
         <v>274.1035227175432</v>
       </c>
       <c r="M43" t="n">
-        <v>299.4977962876914</v>
+        <v>299.4977962876915</v>
       </c>
       <c r="N43" t="n">
         <v>297.8659196396851</v>
@@ -37958,7 +37958,7 @@
         <v>197.8176059917461</v>
       </c>
       <c r="Q43" t="n">
-        <v>52.68079795403621</v>
+        <v>52.68079795403624</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>132.6846713669509</v>
+        <v>132.684671366951</v>
       </c>
       <c r="K44" t="n">
-        <v>250.1109559575407</v>
+        <v>250.1109559575409</v>
       </c>
       <c r="L44" t="n">
-        <v>347.5592641161276</v>
+        <v>347.5592641161278</v>
       </c>
       <c r="M44" t="n">
-        <v>418.7159795815593</v>
+        <v>418.7159795815595</v>
       </c>
       <c r="N44" t="n">
-        <v>430.1516543891397</v>
+        <v>430.15165438914</v>
       </c>
       <c r="O44" t="n">
-        <v>392.7100487188048</v>
+        <v>392.7100487188051</v>
       </c>
       <c r="P44" t="n">
-        <v>300.319445096288</v>
+        <v>300.3194450962882</v>
       </c>
       <c r="Q44" t="n">
-        <v>176.8680561605024</v>
+        <v>176.8680561605026</v>
       </c>
       <c r="R44" t="n">
-        <v>16.61085138722498</v>
+        <v>16.61085138722507</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,31 +38095,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>186.1091904063826</v>
+        <v>186.1091904063827</v>
       </c>
       <c r="K45" t="n">
-        <v>445.9900909703316</v>
+        <v>329.8669931509809</v>
       </c>
       <c r="L45" t="n">
-        <v>290.8730133158208</v>
+        <v>290.8730133158209</v>
       </c>
       <c r="M45" t="n">
-        <v>358.9874790390622</v>
+        <v>358.9874790390624</v>
       </c>
       <c r="N45" t="n">
-        <v>383.0429961922271</v>
+        <v>383.0429961922272</v>
       </c>
       <c r="O45" t="n">
-        <v>327.9652704179364</v>
+        <v>327.9652704179366</v>
       </c>
       <c r="P45" t="n">
-        <v>243.6926936986961</v>
+        <v>243.6926936986962</v>
       </c>
       <c r="Q45" t="n">
-        <v>206.4328713128949</v>
+        <v>322.5559691322458</v>
       </c>
       <c r="R45" t="n">
-        <v>22.63732142078702</v>
+        <v>22.63732142078706</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>23.86813245058013</v>
+        <v>23.86813245058018</v>
       </c>
       <c r="K46" t="n">
-        <v>170.3709935295874</v>
+        <v>170.3709935295875</v>
       </c>
       <c r="L46" t="n">
         <v>274.1035227175432</v>
       </c>
       <c r="M46" t="n">
-        <v>299.4977962876914</v>
+        <v>299.4977962876915</v>
       </c>
       <c r="N46" t="n">
-        <v>297.865919639685</v>
+        <v>297.8659196396851</v>
       </c>
       <c r="O46" t="n">
         <v>258.9493115061252</v>
       </c>
       <c r="P46" t="n">
-        <v>197.817605991746</v>
+        <v>197.8176059917461</v>
       </c>
       <c r="Q46" t="n">
-        <v>52.68079795403621</v>
+        <v>52.68079795403624</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
